--- a/Homework/ThermoHW8.xlsx
+++ b/Homework/ThermoHW8.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b17c6545b7781650/Desktop/Fall24Classes/Homework/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wroos\Desktop\Fall24Classes\Homework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="240" documentId="11_F25DC773A252ABDACC10489A691F551C5ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0AB52EC-D8FF-4584-9745-5A8A7F014711}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29C0E984-6CC3-4A57-A32C-1185715039DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="13.32a" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>P/kPa</t>
   </si>
@@ -74,7 +74,16 @@
     <t>Slope</t>
   </si>
   <si>
-    <t>At x1=0, ln(gamma1) = A12</t>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A0</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>A21</t>
   </si>
 </sst>
 </file>
@@ -96,7 +105,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -115,6 +124,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -128,11 +149,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1381,6 +1403,220 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="992388" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBDFEEC1-EBA1-39FA-E7FC-3E325079CAA2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6886575" y="3919537"/>
+              <a:ext cx="992388" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑌</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=2</m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐴</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>−</m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐴</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>0</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBDFEEC1-EBA1-39FA-E7FC-3E325079CAA2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6886575" y="3919537"/>
+              <a:ext cx="992388" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑌=2𝐴_1 𝑥_1−𝐴_0</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1397,16 +1633,16 @@
     <tableColumn id="5" xr3:uid="{851AF5FF-2E8B-4D7E-88B4-BDB866951248}" name="y2" dataDxfId="4">
       <calculatedColumnFormula>1-Table1[[#This Row],[y1]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{C81ADE28-333F-4A19-9BB1-0222CB837CD5}" name="gamma1" dataDxfId="0">
+    <tableColumn id="6" xr3:uid="{C81ADE28-333F-4A19-9BB1-0222CB837CD5}" name="gamma1" dataDxfId="3">
       <calculatedColumnFormula>Table1[[#This Row],[y1]]*Table1[[#This Row],[P/kPa]]/Table1[[#This Row],[x1]]/$B$14</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{EF3F361C-2EFB-4194-87E7-29C3F44FDC4B}" name="gamma2" dataDxfId="3">
+    <tableColumn id="7" xr3:uid="{EF3F361C-2EFB-4194-87E7-29C3F44FDC4B}" name="gamma2" dataDxfId="2">
       <calculatedColumnFormula>Table1[[#This Row],[y2]]*Table1[[#This Row],[P/kPa]]/Table1[[#This Row],[x2]]/$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{BEF2266A-50C7-44B3-B1E3-8C2391F24782}" name="ExcessG/RT" dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{BEF2266A-50C7-44B3-B1E3-8C2391F24782}" name="ExcessG/RT" dataDxfId="1">
       <calculatedColumnFormula>Table1[[#This Row],[x1]]*LN(Table1[[#This Row],[gamma1]])+Table1[[#This Row],[x2]]*LN(Table1[[#This Row],[gamma2]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{B516218A-9438-4E97-AB7C-EA18F3DB7C5F}" name="Y" dataDxfId="1">
+    <tableColumn id="9" xr3:uid="{B516218A-9438-4E97-AB7C-EA18F3DB7C5F}" name="Y" dataDxfId="0">
       <calculatedColumnFormula>Table1[[#This Row],[ExcessG/RT]]/Table1[[#This Row],[x1]]/Table1[[#This Row],[x2]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1677,15 +1913,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:M28"/>
+  <dimension ref="B2:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1714,7 +1950,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>19.952999999999999</v>
       </c>
@@ -1736,16 +1972,14 @@
         <f>Table1[[#This Row],[y2]]*Table1[[#This Row],[P/kPa]]/Table1[[#This Row],[x2]]/$B$3</f>
         <v>1</v>
       </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>39.222999999999999</v>
       </c>
@@ -1771,24 +2005,24 @@
         <f>Table1[[#This Row],[y2]]*Table1[[#This Row],[P/kPa]]/Table1[[#This Row],[x2]]/$B$3</f>
         <v>1.0133856540257142</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4">
         <f>Table1[[#This Row],[x1]]*LN(Table1[[#This Row],[gamma1]])+Table1[[#This Row],[x2]]*LN(Table1[[#This Row],[gamma2]])</f>
         <v>8.7319322500059415E-2</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4">
         <f>Table1[[#This Row],[ExcessG/RT]]/Table1[[#This Row],[x1]]/Table1[[#This Row],[x2]]</f>
         <v>0.62293504917215348</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="2">
         <f>SLOPE(J4:J13,C4:C13)</f>
         <v>-0.20751617568439412</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="2">
         <f>INTERCEPT(J4:J13,C4:C13)</f>
         <v>0.68276027946937146</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>42.984000000000002</v>
       </c>
@@ -1814,16 +2048,16 @@
         <f>Table1[[#This Row],[y2]]*Table1[[#This Row],[P/kPa]]/Table1[[#This Row],[x2]]/$B$3</f>
         <v>1.0263893416476249</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5">
         <f>Table1[[#This Row],[x1]]*LN(Table1[[#This Row],[gamma1]])+Table1[[#This Row],[x2]]*LN(Table1[[#This Row],[gamma2]])</f>
         <v>0.10393116967614056</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5">
         <f>Table1[[#This Row],[ExcessG/RT]]/Table1[[#This Row],[x1]]/Table1[[#This Row],[x2]]</f>
         <v>0.61229227071827541</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>48.851999999999997</v>
       </c>
@@ -1849,16 +2083,23 @@
         <f>Table1[[#This Row],[y2]]*Table1[[#This Row],[P/kPa]]/Table1[[#This Row],[x2]]/$B$3</f>
         <v>1.0752215270891623</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6">
         <f>Table1[[#This Row],[x1]]*LN(Table1[[#This Row],[gamma1]])+Table1[[#This Row],[x2]]*LN(Table1[[#This Row],[gamma2]])</f>
         <v>0.13482288677392501</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6">
         <f>Table1[[#This Row],[ExcessG/RT]]/Table1[[#This Row],[x1]]/Table1[[#This Row],[x2]]</f>
         <v>0.63732548919746512</v>
       </c>
+      <c r="L6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" s="4">
+        <f>L4/2</f>
+        <v>-0.10375808784219706</v>
+      </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>52.783999999999999</v>
       </c>
@@ -1884,16 +2125,23 @@
         <f>Table1[[#This Row],[y2]]*Table1[[#This Row],[P/kPa]]/Table1[[#This Row],[x2]]/$B$3</f>
         <v>1.1115020440462686</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7">
         <f>Table1[[#This Row],[x1]]*LN(Table1[[#This Row],[gamma1]])+Table1[[#This Row],[x2]]*LN(Table1[[#This Row],[gamma2]])</f>
         <v>0.14761907344316061</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7">
         <f>Table1[[#This Row],[ExcessG/RT]]/Table1[[#This Row],[x1]]/Table1[[#This Row],[x2]]</f>
         <v>0.63464125817090966</v>
       </c>
+      <c r="L7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="4">
+        <f>M4*-1</f>
+        <v>-0.68276027946937146</v>
+      </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>56.652000000000001</v>
       </c>
@@ -1919,16 +2167,16 @@
         <f>Table1[[#This Row],[y2]]*Table1[[#This Row],[P/kPa]]/Table1[[#This Row],[x2]]/$B$3</f>
         <v>1.1574430096681343</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8">
         <f>Table1[[#This Row],[x1]]*LN(Table1[[#This Row],[gamma1]])+Table1[[#This Row],[x2]]*LN(Table1[[#This Row],[gamma2]])</f>
         <v>0.14822791305321487</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8">
         <f>Table1[[#This Row],[ExcessG/RT]]/Table1[[#This Row],[x1]]/Table1[[#This Row],[x2]]</f>
         <v>0.59988279418281076</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>60.613999999999997</v>
       </c>
@@ -1954,16 +2202,23 @@
         <f>Table1[[#This Row],[y2]]*Table1[[#This Row],[P/kPa]]/Table1[[#This Row],[x2]]/$B$3</f>
         <v>1.2330355096664529</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9">
         <f>Table1[[#This Row],[x1]]*LN(Table1[[#This Row],[gamma1]])+Table1[[#This Row],[x2]]*LN(Table1[[#This Row],[gamma2]])</f>
         <v>0.14782094432399723</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9">
         <f>Table1[[#This Row],[ExcessG/RT]]/Table1[[#This Row],[x1]]/Table1[[#This Row],[x2]]</f>
         <v>0.59317062934109788</v>
       </c>
+      <c r="L9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M9" s="4">
+        <f>M6+M7</f>
+        <v>-0.78651836731156854</v>
+      </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>63.997999999999998</v>
       </c>
@@ -1989,19 +2244,23 @@
         <f>Table1[[#This Row],[y2]]*Table1[[#This Row],[P/kPa]]/Table1[[#This Row],[x2]]/$B$3</f>
         <v>1.3110279074936311</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10">
         <f>Table1[[#This Row],[x1]]*LN(Table1[[#This Row],[gamma1]])+Table1[[#This Row],[x2]]*LN(Table1[[#This Row],[gamma2]])</f>
         <v>0.13645043994460299</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10">
         <f>Table1[[#This Row],[ExcessG/RT]]/Table1[[#This Row],[x1]]/Table1[[#This Row],[x2]]</f>
         <v>0.57068203558385699</v>
       </c>
-      <c r="L10" t="s">
-        <v>11</v>
+      <c r="L10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M10" s="4">
+        <f>M7-M6</f>
+        <v>-0.57900219162717437</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>67.924000000000007</v>
       </c>
@@ -2027,16 +2286,16 @@
         <f>Table1[[#This Row],[y2]]*Table1[[#This Row],[P/kPa]]/Table1[[#This Row],[x2]]/$B$3</f>
         <v>1.3495373075413084</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11">
         <f>Table1[[#This Row],[x1]]*LN(Table1[[#This Row],[gamma1]])+Table1[[#This Row],[x2]]*LN(Table1[[#This Row],[gamma2]])</f>
         <v>0.11655792072502427</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11">
         <f>Table1[[#This Row],[ExcessG/RT]]/Table1[[#This Row],[x1]]/Table1[[#This Row],[x2]]</f>
         <v>0.5360073140598306</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>70.228999999999999</v>
       </c>
@@ -2062,16 +2321,16 @@
         <f>Table1[[#This Row],[y2]]*Table1[[#This Row],[P/kPa]]/Table1[[#This Row],[x2]]/$B$3</f>
         <v>1.3822439380997076</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12">
         <f>Table1[[#This Row],[x1]]*LN(Table1[[#This Row],[gamma1]])+Table1[[#This Row],[x2]]*LN(Table1[[#This Row],[gamma2]])</f>
         <v>0.1041700109527956</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12">
         <f>Table1[[#This Row],[ExcessG/RT]]/Table1[[#This Row],[x1]]/Table1[[#This Row],[x2]]</f>
         <v>0.52307377213777884</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>72.831999999999994</v>
       </c>
@@ -2097,16 +2356,16 @@
         <f>Table1[[#This Row],[y2]]*Table1[[#This Row],[P/kPa]]/Table1[[#This Row],[x2]]/$B$3</f>
         <v>1.4098483955280514</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13">
         <f>Table1[[#This Row],[x1]]*LN(Table1[[#This Row],[gamma1]])+Table1[[#This Row],[x2]]*LN(Table1[[#This Row],[gamma2]])</f>
         <v>8.6031235779379225E-2</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13">
         <f>Table1[[#This Row],[ExcessG/RT]]/Table1[[#This Row],[x1]]/Table1[[#This Row],[x2]]</f>
         <v>0.49746797341859855</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>84.561999999999998</v>
       </c>
@@ -2128,108 +2387,13 @@
         <f>Table1[[#This Row],[y1]]*Table1[[#This Row],[P/kPa]]/Table1[[#This Row],[x1]]/$B$14</f>
         <v>1</v>
       </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-    </row>
-    <row r="20" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-    </row>
-    <row r="21" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-    </row>
-    <row r="22" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-    </row>
-    <row r="23" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-    </row>
-    <row r="24" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-    </row>
-    <row r="25" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-    </row>
-    <row r="26" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-    </row>
-    <row r="27" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-    </row>
-    <row r="28" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="L4:M4" formulaRange="1"/>
+  </ignoredErrors>
   <drawing r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
@@ -2243,7 +2407,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2255,7 +2419,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2267,7 +2431,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Homework/ThermoHW8.xlsx
+++ b/Homework/ThermoHW8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b17c6545b7781650/Desktop/Fall24Classes/Homework/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1425" documentId="13_ncr:1_{29C0E984-6CC3-4A57-A32C-1185715039DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9E71EF9-2ABD-471E-9AA9-E4E7C4395CBC}"/>
+  <xr:revisionPtr revIDLastSave="3195" documentId="13_ncr:1_{29C0E984-6CC3-4A57-A32C-1185715039DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7462820-28F2-4634-B7A9-AE30F656C31A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,16 +31,17 @@
     <definedName name="solver_est" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="2" hidden="1">'13.32c'!$K$10</definedName>
+    <definedName name="solver_lhs1" localSheetId="2" hidden="1">'13.32c'!$K$9</definedName>
+    <definedName name="solver_lhs1" localSheetId="3" hidden="1">'13.65'!$R$46</definedName>
     <definedName name="solver_lhs10" localSheetId="2" hidden="1">'13.32c'!$K$9</definedName>
-    <definedName name="solver_lhs2" localSheetId="2" hidden="1">'13.32c'!$K$11</definedName>
-    <definedName name="solver_lhs3" localSheetId="2" hidden="1">'13.32c'!$K$12</definedName>
-    <definedName name="solver_lhs4" localSheetId="2" hidden="1">'13.32c'!$K$13</definedName>
-    <definedName name="solver_lhs5" localSheetId="2" hidden="1">'13.32c'!$K$4</definedName>
-    <definedName name="solver_lhs6" localSheetId="2" hidden="1">'13.32c'!$K$5</definedName>
-    <definedName name="solver_lhs7" localSheetId="2" hidden="1">'13.32c'!$K$6</definedName>
-    <definedName name="solver_lhs8" localSheetId="2" hidden="1">'13.32c'!$K$7</definedName>
-    <definedName name="solver_lhs9" localSheetId="2" hidden="1">'13.32c'!$K$8</definedName>
+    <definedName name="solver_lhs2" localSheetId="2" hidden="1">'13.32c'!$K$9</definedName>
+    <definedName name="solver_lhs3" localSheetId="2" hidden="1">'13.32c'!$K$9</definedName>
+    <definedName name="solver_lhs4" localSheetId="2" hidden="1">'13.32c'!$K$9</definedName>
+    <definedName name="solver_lhs5" localSheetId="2" hidden="1">'13.32c'!$K$9</definedName>
+    <definedName name="solver_lhs6" localSheetId="2" hidden="1">'13.32c'!$K$9</definedName>
+    <definedName name="solver_lhs7" localSheetId="2" hidden="1">'13.32c'!$K$9</definedName>
+    <definedName name="solver_lhs8" localSheetId="2" hidden="1">'13.32c'!$K$9</definedName>
+    <definedName name="solver_lhs9" localSheetId="2" hidden="1">'13.32c'!$K$9</definedName>
     <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
@@ -53,17 +54,18 @@
     <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="2" hidden="1">10</definedName>
-    <definedName name="solver_num" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_num" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_num" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="2" hidden="1">'13.32c'!$K$16</definedName>
-    <definedName name="solver_opt" localSheetId="3" hidden="1">'13.65'!$R$39</definedName>
+    <definedName name="solver_opt" localSheetId="3" hidden="1">'13.65'!$R$44</definedName>
     <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rel10" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rel2" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rel3" localSheetId="2" hidden="1">2</definedName>
@@ -74,6 +76,7 @@
     <definedName name="solver_rel8" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rel9" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rhs1" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_rhs1" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_rhs10" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_rhs2" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_rhs3" localSheetId="2" hidden="1">0</definedName>
@@ -125,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="46">
   <si>
     <t>P/kPa</t>
   </si>
@@ -235,9 +238,6 @@
     <t>bigphi1</t>
   </si>
   <si>
-    <t>solver function</t>
-  </si>
-  <si>
     <t>Gas Constant</t>
   </si>
   <si>
@@ -251,6 +251,21 @@
   </si>
   <si>
     <t>Just both sides of 13.13 subtacted from each other using P's and y1's calculated from part a as guesses</t>
+  </si>
+  <si>
+    <t>phihatv2</t>
+  </si>
+  <si>
+    <t>phisat2</t>
+  </si>
+  <si>
+    <t>bigphi2</t>
+  </si>
+  <si>
+    <t>solver function 1</t>
+  </si>
+  <si>
+    <t>solver function 2</t>
   </si>
 </sst>
 </file>
@@ -464,23 +479,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
@@ -5262,301 +5275,301 @@
                   <c:v>19.952999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21.449145677718239</c:v>
+                  <c:v>21.448994615636007</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22.880186817296789</c:v>
+                  <c:v>22.879892051702583</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24.250634664141728</c:v>
+                  <c:v>24.250203435553839</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25.56464250384418</c:v>
+                  <c:v>25.56408191014836</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>26.826038333917516</c:v>
+                  <c:v>26.825355311253066</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28.038354179187181</c:v>
+                  <c:v>28.037555487397693</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>29.204852432780648</c:v>
+                  <c:v>29.203944644669587</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>30.328549557106875</c:v>
+                  <c:v>30.327539050857435</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>31.412237438072047</c:v>
+                  <c:v>31.411130392291238</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>32.458502650120735</c:v>
+                  <c:v>32.457305041052429</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>33.469743858734084</c:v>
+                  <c:v>33.468461459256815</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>34.448187560091483</c:v>
+                  <c:v>34.446825940177533</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>35.395902334146463</c:v>
+                  <c:v>35.394466862509326</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>36.314811766899012</c:v>
+                  <c:v>36.31330761359952</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>37.206706179756779</c:v>
+                  <c:v>37.205138319574615</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>38.073253288216705</c:v>
+                  <c:v>38.071626504624831</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>38.916007898367752</c:v>
+                  <c:v>38.914326787973422</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>39.736420737658989</c:v>
+                  <c:v>39.73468971499716</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>40.535846505774984</c:v>
+                  <c:v>40.534069808358566</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>41.315551222123261</c:v>
+                  <c:v>41.31373291567067</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>42.076718938205175</c:v>
+                  <c:v>42.074862921979147</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>42.820457875869778</c:v>
+                  <c:v>42.818567888072579</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>43.547806046020014</c:v>
+                  <c:v>43.545885669200231</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>44.259736396647405</c:v>
+                  <c:v>44.257789063081084</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>44.957161534022461</c:v>
+                  <c:v>44.955190531039136</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>45.64093805638759</c:v>
+                  <c:v>45.638946531616682</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>46.31187053551497</c:v>
+                  <c:v>46.309861502033577</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>46.970715177947682</c:v>
+                  <c:v>46.968691519314831</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>47.618183194583409</c:v>
+                  <c:v>47.616147669749196</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>48.254943904442882</c:v>
+                  <c:v>48.252899152523824</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>48.881627595948281</c:v>
+                  <c:v>48.87957614086308</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>49.498828166788023</c:v>
+                  <c:v>49.496772421749526</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>50.107105561429904</c:v>
+                  <c:v>50.105047833290961</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>50.706988023540674</c:v>
+                  <c:v>50.70493051699296</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>51.298974178951262</c:v>
+                  <c:v>51.296919000577475</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>51.883534963354265</c:v>
+                  <c:v>51.881484125534811</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>52.461115407613292</c:v>
+                  <c:v>52.459070832289441</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>53.032136292388891</c:v>
+                  <c:v>53.030099814685087</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>53.596995682727147</c:v>
+                  <c:v>53.594969054435616</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>54.156070352302748</c:v>
+                  <c:v>54.154055245233742</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>54.709717106146933</c:v>
+                  <c:v>54.707715115348662</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>55.258274009913464</c:v>
+                  <c:v>55.25628665676544</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>55.802061533031946</c:v>
+                  <c:v>55.800090268216181</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>56.34138361246211</c:v>
+                  <c:v>56.339429818816114</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>56.876528643185864</c:v>
+                  <c:v>56.87459363844215</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>57.407770401052183</c:v>
+                  <c:v>57.405855440468194</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>57.935368903115453</c:v>
+                  <c:v>57.933475181998446</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>58.459571210177614</c:v>
+                  <c:v>58.457699866308737</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>58.980612175853935</c:v>
+                  <c:v>58.978764291815729</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>59.498715146125811</c:v>
+                  <c:v>59.496891751537184</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>60.014092613020821</c:v>
+                  <c:v>60.012294686683518</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>60.526946825765208</c:v>
+                  <c:v>60.525175297725823</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>61.037470362484747</c:v>
+                  <c:v>61.035726116016065</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>61.545846665285382</c:v>
+                  <c:v>61.544130538790682</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>62.052250541320376</c:v>
+                  <c:v>62.050563330164323</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>62.556848632246215</c:v>
+                  <c:v>62.555191090516011</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>63.059799854282986</c:v>
+                  <c:v>63.058172696482785</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>63.561255810922695</c:v>
+                  <c:v>63.55965971360483</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>64.061361180173137</c:v>
+                  <c:v>64.059796783509114</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>64.560254078080817</c:v>
+                  <c:v>64.558721987375108</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>65.058066400144625</c:v>
+                  <c:v>65.056567187294249</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>65.554924142111474</c:v>
+                  <c:v>65.553458347013887</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>66.050947701533602</c:v>
+                  <c:v>66.049515833445867</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>66.546252161366013</c:v>
+                  <c:v>66.54485470021757</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>67.040947556787671</c:v>
+                  <c:v>67.039584954449353</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>67.535139126345328</c:v>
+                  <c:v>67.533811807856651</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>68.02892754843775</c:v>
+                  <c:v>68.027635913195212</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>68.522409164086753</c:v>
+                  <c:v>68.521153586994743</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>69.015676186872412</c:v>
+                  <c:v>69.014457019459414</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>69.508816900849112</c:v>
+                  <c:v>69.50763447235046</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>70.001915847200493</c:v>
+                  <c:v>70.000770465610401</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>70.495054000339579</c:v>
+                  <c:v>70.493945953433467</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>70.98830893411035</c:v>
+                  <c:v>70.987238490439879</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>71.481754978702838</c:v>
+                  <c:v>71.480722388564772</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>71.975463368850995</c:v>
+                  <c:v>71.974468865231941</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>72.469502383844926</c:v>
+                  <c:v>72.468546183343179</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>72.963937479852333</c:v>
+                  <c:v>72.963019783578474</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>73.458831415011517</c:v>
+                  <c:v>73.457952409469073</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>73.954244367727142</c:v>
+                  <c:v>73.953404225674745</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>74.450234048571417</c:v>
+                  <c:v>74.449432929867612</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>74.946855806167335</c:v>
+                  <c:v>74.946093858599525</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>75.444162727405569</c:v>
+                  <c:v>75.44344008750403</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>75.942205732323771</c:v>
+                  <c:v>75.941522526162132</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>76.441033663956517</c:v>
+                  <c:v>76.440390007939598</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>76.940693373443466</c:v>
+                  <c:v>76.940089375083573</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>77.441229800665738</c:v>
+                  <c:v>77.440665559348673</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>77.942686050663156</c:v>
+                  <c:v>77.942161658404629</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>78.445103466069</c:v>
+                  <c:v>78.444619008262379</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>78.948521695784379</c:v>
+                  <c:v>78.948077251941072</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>79.452978760100535</c:v>
+                  <c:v>79.452574404583331</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>79.958511112464151</c:v>
+                  <c:v>79.958146915214968</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>80.465153698069514</c:v>
+                  <c:v>80.464829725331754</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>80.972940009449303</c:v>
+                  <c:v>80.972656324486081</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>81.481902139226023</c:v>
+                  <c:v>81.481658803034804</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>81.992070830176104</c:v>
+                  <c:v>81.991867902200624</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>82.503475522749596</c:v>
+                  <c:v>82.503313061589523</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>83.016144400179783</c:v>
+                  <c:v>83.016022464299127</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>83.530104431309198</c:v>
+                  <c:v>83.530023079743998</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>84.045381411251427</c:v>
+                  <c:v>84.045340704317212</c:v>
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>84.561999999999998</c:v>
@@ -5596,301 +5609,301 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.8957889428841632E-2</c:v>
+                  <c:v>7.8951404104646711E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.14501787540756025</c:v>
+                  <c:v>0.14500686695008544</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.20115489056323635</c:v>
+                  <c:v>0.20114070083085997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.249495560946739</c:v>
+                  <c:v>0.24947913296382332</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.29160043746452402</c:v>
+                  <c:v>0.29158244934474814</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.32864058010743996</c:v>
+                  <c:v>0.32862152905695441</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.36151192338001409</c:v>
+                  <c:v>0.36149218007103423</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.39091158057762354</c:v>
+                  <c:v>0.3908914253141455</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.41739008827442203</c:v>
+                  <c:v>0.41736973562607282</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.44138799987286287</c:v>
+                  <c:v>0.44136761580921324</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.4632620380701068</c:v>
+                  <c:v>0.46324175210231822</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.48330412407435536</c:v>
+                  <c:v>0.48328403800306008</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.50175544881481726</c:v>
+                  <c:v>0.50173564312760222</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.51881703050394357</c:v>
+                  <c:v>0.5187975691174016</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.53465774124622811</c:v>
+                  <c:v>0.53463867506414808</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.54942048335404059</c:v>
+                  <c:v>0.54940185296715094</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.56322699456806735</c:v>
+                  <c:v>0.56320883232335961</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.57618162460660105</c:v>
+                  <c:v>0.5761639562082812</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.58837433109947601</c:v>
+                  <c:v>0.58835717685819855</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.59988307687745446</c:v>
+                  <c:v>0.59986645269281824</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.61077576367107822</c:v>
+                  <c:v>0.61075968180997864</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.62111180353973117</c:v>
+                  <c:v>0.62109627325714056</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.63094340481035471</c:v>
+                  <c:v>0.63092843284751932</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.64031663125472438</c:v>
+                  <c:v>0.64030222224128919</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.64927227982139468</c:v>
+                  <c:v>0.64925843660171723</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.65784661217617446</c:v>
+                  <c:v>0.6578333360754276</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.66607196768840049</c:v>
+                  <c:v>0.66605925873056537</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.67397727968627252</c:v>
+                  <c:v>0.67396513677347003</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.6815885123312021</c:v>
+                  <c:v>0.68157693339179126</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.68892903199359867</c:v>
+                  <c:v>0.68891801410491071</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.69601992430561066</c:v>
+                  <c:v>0.6960094637959926</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.70288026593910879</c:v>
+                  <c:v>0.70287035847300638</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.70952735847488135</c:v>
+                  <c:v>0.70951799912396141</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.7159769303906024</c:v>
+                  <c:v>0.71596811369333713</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.72224331212422388</c:v>
+                  <c:v>0.72223503213590223</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.72833958830793688</c:v>
+                  <c:v>0.72833183864270123</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.73427773057120338</c:v>
+                  <c:v>0.73427050443742248</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.7400687137452675</c:v>
+                  <c:v>0.74006200397531863</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.74572261783936999</c:v>
+                  <c:v>0.74571641691471857</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.75124871777986146</c:v>
+                  <c:v>0.75124301785216863</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.75665556259122257</c:v>
+                  <c:v>0.75665035550008997</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.76195104543981751</c:v>
+                  <c:v>0.76194632272767615</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.76714246574685208</c:v>
+                  <c:v>0.76713821867141663</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.77223658439834797</c:v>
+                  <c:v>0.77223280394299065</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.77723967293051222</c:v>
+                  <c:v>0.77723634981285705</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.78215755744345861</c:v>
+                  <c:v>0.78215468212244121</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.78699565789059234</c:v>
+                  <c:v>0.78699322057219989</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.79175902330172754</c:v>
+                  <c:v>0.7917570139435981</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.79645236342236414</c:v>
+                  <c:v>0.79645077173739498</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.80108007718724505</c:v>
+                  <c:v>0.80107889264634013</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.80564627839150282</c:v>
+                  <c:v>0.80564549022556931</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.81015481887583751</c:v>
+                  <c:v>0.81015441607712457</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.81460930950199817</c:v>
+                  <c:v>0.81460928082485817</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.81901313916031315</c:v>
+                  <c:v>0.81901347312145256</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.82336949202127119</c:v>
+                  <c:v>0.82337017689955283</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.82768136321746166</c:v>
+                  <c:v>0.8276823870533051</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.83195157311994339</c:v>
+                  <c:v>0.83195292371436924</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.83618278035380855</c:v>
+                  <c:v>0.83618444526716362</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.84037749368093206</c:v>
+                  <c:v>0.84037946023132559</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.84453808286326482</c:v>
+                  <c:v>0.84454033812474649</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.84866678860726408</c:v>
+                  <c:v>0.84866931940776336</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.85276573167887049</c:v>
+                  <c:v>0.85276852459792329</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.85683692126865385</c:v>
+                  <c:v>0.85683996263492856</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.86088226267812873</c:v>
+                  <c:v>0.8608855385667713</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.86490356439068272</c:v>
+                  <c:v>0.86490706062049127</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.86890254458386684</c:v>
+                  <c:v>0.86890624671430794</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.87288083713391407</c:v>
+                  <c:v>0.87288473046199</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.87683999715812366</c:v>
+                  <c:v>0.87684406671510007</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.88078150613613659</c:v>
+                  <c:v>0.88078573668413651</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.88470677664701658</c:v>
+                  <c:v>0.88471115267548661</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.88861715675540787</c:v>
+                  <c:v>0.88862166247746299</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.89251393407679691</c:v>
+                  <c:v>0.8925185534254465</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.89639833954900439</c:v>
+                  <c:v>0.89640305617326455</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.90027155093445488</c:v>
+                  <c:v>0.90027634819534919</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.90413469607545927</c:v>
+                  <c:v>0.9041395570419104</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.90798885592267364</c:v>
+                  <c:v>0.90799376336728788</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.91183506735504805</c:v>
+                  <c:v>0.91184000374979457</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.91567432580790875</c:v>
+                  <c:v>0.91567927331969334</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.9195075877243245</c:v>
+                  <c:v>0.91951252821046037</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.92333577284355717</c:v>
+                  <c:v>0.92334068784713219</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.9271597663391864</c:v>
+                  <c:v>0.92716463708432661</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.93098042081840038</c:v>
+                  <c:v>0.93098522820543073</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.93479855819295798</c:v>
+                  <c:v>0.9348032827934587</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.93861497143143036</c:v>
+                  <c:v>0.9386195934831898</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.94243042620152429</c:v>
+                  <c:v>0.94243492560338593</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.94624566241055186</c:v>
+                  <c:v>0.94625001871715719</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.95006139565145131</c:v>
+                  <c:v>0.95006558806787267</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.95387831856115002</c:v>
+                  <c:v>0.9538823259374194</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.95769710209752479</c:v>
+                  <c:v>0.9577009029230491</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.96151839674069917</c:v>
+                  <c:v>0.9615219691385688</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.96534283362397788</c:v>
+                  <c:v>0.96534615534515889</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.96917102559928869</c:v>
+                  <c:v>0.96917407401670363</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.97300356824163536</c:v>
+                  <c:v>0.97300632034412715</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.97684104079671141</c:v>
+                  <c:v>0.97684347318288933</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.98068400707551262</c:v>
+                  <c:v>0.98068609594747869</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.98453301629949319</c:v>
+                  <c:v>0.98453473745644715</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.98838860389954997</c:v>
+                  <c:v>0.98838993273126929</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.99225129227187137</c:v>
+                  <c:v>0.99225220375206569</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.99612159149346846</c:v>
+                  <c:v>0.99612206017300542</c:v>
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>1</c:v>
@@ -5908,301 +5921,301 @@
                   <c:v>19.952999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21.449145677718239</c:v>
+                  <c:v>21.448994615636007</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22.880186817296789</c:v>
+                  <c:v>22.879892051702583</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24.250634664141728</c:v>
+                  <c:v>24.250203435553839</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25.56464250384418</c:v>
+                  <c:v>25.56408191014836</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>26.826038333917516</c:v>
+                  <c:v>26.825355311253066</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28.038354179187181</c:v>
+                  <c:v>28.037555487397693</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>29.204852432780648</c:v>
+                  <c:v>29.203944644669587</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>30.328549557106875</c:v>
+                  <c:v>30.327539050857435</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>31.412237438072047</c:v>
+                  <c:v>31.411130392291238</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>32.458502650120735</c:v>
+                  <c:v>32.457305041052429</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>33.469743858734084</c:v>
+                  <c:v>33.468461459256815</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>34.448187560091483</c:v>
+                  <c:v>34.446825940177533</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>35.395902334146463</c:v>
+                  <c:v>35.394466862509326</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>36.314811766899012</c:v>
+                  <c:v>36.31330761359952</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>37.206706179756779</c:v>
+                  <c:v>37.205138319574615</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>38.073253288216705</c:v>
+                  <c:v>38.071626504624831</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>38.916007898367752</c:v>
+                  <c:v>38.914326787973422</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>39.736420737658989</c:v>
+                  <c:v>39.73468971499716</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>40.535846505774984</c:v>
+                  <c:v>40.534069808358566</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>41.315551222123261</c:v>
+                  <c:v>41.31373291567067</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>42.076718938205175</c:v>
+                  <c:v>42.074862921979147</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>42.820457875869778</c:v>
+                  <c:v>42.818567888072579</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>43.547806046020014</c:v>
+                  <c:v>43.545885669200231</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>44.259736396647405</c:v>
+                  <c:v>44.257789063081084</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>44.957161534022461</c:v>
+                  <c:v>44.955190531039136</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>45.64093805638759</c:v>
+                  <c:v>45.638946531616682</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>46.31187053551497</c:v>
+                  <c:v>46.309861502033577</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>46.970715177947682</c:v>
+                  <c:v>46.968691519314831</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>47.618183194583409</c:v>
+                  <c:v>47.616147669749196</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>48.254943904442882</c:v>
+                  <c:v>48.252899152523824</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>48.881627595948281</c:v>
+                  <c:v>48.87957614086308</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>49.498828166788023</c:v>
+                  <c:v>49.496772421749526</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>50.107105561429904</c:v>
+                  <c:v>50.105047833290961</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>50.706988023540674</c:v>
+                  <c:v>50.70493051699296</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>51.298974178951262</c:v>
+                  <c:v>51.296919000577475</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>51.883534963354265</c:v>
+                  <c:v>51.881484125534811</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>52.461115407613292</c:v>
+                  <c:v>52.459070832289441</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>53.032136292388891</c:v>
+                  <c:v>53.030099814685087</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>53.596995682727147</c:v>
+                  <c:v>53.594969054435616</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>54.156070352302748</c:v>
+                  <c:v>54.154055245233742</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>54.709717106146933</c:v>
+                  <c:v>54.707715115348662</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>55.258274009913464</c:v>
+                  <c:v>55.25628665676544</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>55.802061533031946</c:v>
+                  <c:v>55.800090268216181</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>56.34138361246211</c:v>
+                  <c:v>56.339429818816114</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>56.876528643185864</c:v>
+                  <c:v>56.87459363844215</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>57.407770401052183</c:v>
+                  <c:v>57.405855440468194</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>57.935368903115453</c:v>
+                  <c:v>57.933475181998446</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>58.459571210177614</c:v>
+                  <c:v>58.457699866308737</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>58.980612175853935</c:v>
+                  <c:v>58.978764291815729</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>59.498715146125811</c:v>
+                  <c:v>59.496891751537184</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>60.014092613020821</c:v>
+                  <c:v>60.012294686683518</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>60.526946825765208</c:v>
+                  <c:v>60.525175297725823</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>61.037470362484747</c:v>
+                  <c:v>61.035726116016065</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>61.545846665285382</c:v>
+                  <c:v>61.544130538790682</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>62.052250541320376</c:v>
+                  <c:v>62.050563330164323</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>62.556848632246215</c:v>
+                  <c:v>62.555191090516011</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>63.059799854282986</c:v>
+                  <c:v>63.058172696482785</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>63.561255810922695</c:v>
+                  <c:v>63.55965971360483</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>64.061361180173137</c:v>
+                  <c:v>64.059796783509114</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>64.560254078080817</c:v>
+                  <c:v>64.558721987375108</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>65.058066400144625</c:v>
+                  <c:v>65.056567187294249</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>65.554924142111474</c:v>
+                  <c:v>65.553458347013887</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>66.050947701533602</c:v>
+                  <c:v>66.049515833445867</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>66.546252161366013</c:v>
+                  <c:v>66.54485470021757</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>67.040947556787671</c:v>
+                  <c:v>67.039584954449353</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>67.535139126345328</c:v>
+                  <c:v>67.533811807856651</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>68.02892754843775</c:v>
+                  <c:v>68.027635913195212</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>68.522409164086753</c:v>
+                  <c:v>68.521153586994743</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>69.015676186872412</c:v>
+                  <c:v>69.014457019459414</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>69.508816900849112</c:v>
+                  <c:v>69.50763447235046</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>70.001915847200493</c:v>
+                  <c:v>70.000770465610401</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>70.495054000339579</c:v>
+                  <c:v>70.493945953433467</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>70.98830893411035</c:v>
+                  <c:v>70.987238490439879</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>71.481754978702838</c:v>
+                  <c:v>71.480722388564772</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>71.975463368850995</c:v>
+                  <c:v>71.974468865231941</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>72.469502383844926</c:v>
+                  <c:v>72.468546183343179</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>72.963937479852333</c:v>
+                  <c:v>72.963019783578474</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>73.458831415011517</c:v>
+                  <c:v>73.457952409469073</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>73.954244367727142</c:v>
+                  <c:v>73.953404225674745</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>74.450234048571417</c:v>
+                  <c:v>74.449432929867612</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>74.946855806167335</c:v>
+                  <c:v>74.946093858599525</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>75.444162727405569</c:v>
+                  <c:v>75.44344008750403</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>75.942205732323771</c:v>
+                  <c:v>75.941522526162132</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>76.441033663956517</c:v>
+                  <c:v>76.440390007939598</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>76.940693373443466</c:v>
+                  <c:v>76.940089375083573</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>77.441229800665738</c:v>
+                  <c:v>77.440665559348673</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>77.942686050663156</c:v>
+                  <c:v>77.942161658404629</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>78.445103466069</c:v>
+                  <c:v>78.444619008262379</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>78.948521695784379</c:v>
+                  <c:v>78.948077251941072</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>79.452978760100535</c:v>
+                  <c:v>79.452574404583331</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>79.958511112464151</c:v>
+                  <c:v>79.958146915214968</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>80.465153698069514</c:v>
+                  <c:v>80.464829725331754</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>80.972940009449303</c:v>
+                  <c:v>80.972656324486081</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>81.481902139226023</c:v>
+                  <c:v>81.481658803034804</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>81.992070830176104</c:v>
+                  <c:v>81.991867902200624</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>82.503475522749596</c:v>
+                  <c:v>82.503313061589523</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>83.016144400179783</c:v>
+                  <c:v>83.016022464299127</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>83.530104431309198</c:v>
+                  <c:v>83.530023079743998</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>84.045381411251427</c:v>
+                  <c:v>84.045340704317212</c:v>
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>84.561999999999998</c:v>
@@ -8886,7 +8899,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1697E32B-126D-E3E6-F7A0-8AD25566CF69}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8930,7 +8943,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22E6D29F-41FB-CB03-0131-43984FC57A55}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8966,7 +8979,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB6B96B4-D9CB-A199-F604-938B8077ABE6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9000,14 +9013,14 @@
       <xdr:rowOff>109537</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1311962" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBDFEEC1-EBA1-39FA-E7FC-3E325079CAA2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9182,7 +9195,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -9257,7 +9270,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F924A207-2558-F67D-463E-B394DBDACE85}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9301,7 +9314,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{748CCBB3-7BDA-5DB1-6CE7-128F1A367582}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9345,7 +9358,7 @@
         <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EE1C883-D381-6478-55F3-816FADAB1E20}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9389,7 +9402,7 @@
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEAD60E0-45F9-0C3D-025B-85261E5FEF6C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9433,7 +9446,7 @@
         <xdr:cNvPr id="10" name="Chart 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BD867F6-2B7E-C7B4-BEB5-741B4647770D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9474,7 +9487,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79DBED3E-6F74-2DE5-96DA-56AB7C7FD2E1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9518,7 +9531,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31622182-C54A-4BA8-8D47-32A1EEA998E1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9562,7 +9575,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72699E1F-FC26-421D-B81F-41B3CFDCECB6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9606,7 +9619,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D94B15DA-0A08-F5A3-BD4E-A2841D61F5C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9647,7 +9660,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A995E28-D4EC-7BEE-58ED-04B088CBA7B2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9691,7 +9704,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFA4F1D9-28D9-1D49-2FFE-1959A0CBE6E9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9735,7 +9748,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{049249AF-5D43-4326-9261-C231EA97BFD2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9779,7 +9792,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{066247A9-695C-4A3C-BA29-76F118007272}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9823,7 +9836,7 @@
         <xdr:cNvPr id="7" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBF0EE94-FB68-48FA-BC9E-92B405ED1615}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9866,7 +9879,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16853743-40A3-D347-524B-8838CDBA64A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9910,7 +9923,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADFFF616-D790-4DB5-8266-2B39A39EADD7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9954,7 +9967,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DB03C35-D848-1AC8-3F86-665AA8D88EC3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9998,7 +10011,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EE1C883-D381-6478-55F3-816FADAB1E20}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10042,7 +10055,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B017627-EF44-89D8-49E0-6FFE25FC3A7B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10086,7 +10099,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20DBD1C0-248F-B5E1-0DF2-D8BDF6BB0C4A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10130,7 +10143,7 @@
         <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DC39433-C92A-2C73-E21A-01675753A7FF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10174,7 +10187,7 @@
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CF6856E-A4D7-C990-5017-96CC42AB806F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10218,7 +10231,7 @@
         <xdr:cNvPr id="10" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74EE47A5-8A3F-F3EF-E561-00C7936AFC4E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10262,7 +10275,7 @@
         <xdr:cNvPr id="11" name="Picture 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86B5C465-238F-8497-38B7-A9B436A35832}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10288,6 +10301,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10328,16 +10345,16 @@
     <tableColumn id="2" xr3:uid="{5470F41E-407B-48ED-8327-76839AB9439D}" name="x2" dataDxfId="27">
       <calculatedColumnFormula>1-Table2[[#This Row],[x1]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{2ED58354-8F84-461E-8E63-C91E22FB3FE2}" name="gamma1" dataDxfId="23">
+    <tableColumn id="3" xr3:uid="{2ED58354-8F84-461E-8E63-C91E22FB3FE2}" name="gamma1" dataDxfId="26">
       <calculatedColumnFormula>EXP(Table2[[#This Row],[x2]]^2*($M$9+2*($M$10-$M$9)*Table2[[#This Row],[x1]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{D35AEEBA-CEA3-487A-8471-E34361F04598}" name="gamma2" dataDxfId="26">
+    <tableColumn id="4" xr3:uid="{D35AEEBA-CEA3-487A-8471-E34361F04598}" name="gamma2" dataDxfId="25">
       <calculatedColumnFormula>EXP(Table2[[#This Row],[x1]]^2*($M$10+2*($M$9-$M$10)*Table2[[#This Row],[x2]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{4B8AEE6B-3B42-49E7-9B34-2863E0F50EC5}" name="P" dataDxfId="25">
+    <tableColumn id="5" xr3:uid="{4B8AEE6B-3B42-49E7-9B34-2863E0F50EC5}" name="P" dataDxfId="24">
       <calculatedColumnFormula>Table2[[#This Row],[x1]]*Table2[[#This Row],[gamma1]]*$M$12+Table2[[#This Row],[x2]]*Table2[[#This Row],[gamma2]]*$M$13</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{C55312E7-88A1-4A37-842F-297C14E339FB}" name="y1" dataDxfId="24">
+    <tableColumn id="6" xr3:uid="{C55312E7-88A1-4A37-842F-297C14E339FB}" name="y1" dataDxfId="23">
       <calculatedColumnFormula>Table2[[#This Row],[x1]]*Table2[[#This Row],[gamma1]]*$M$12/Table2[[#This Row],[P]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10392,10 +10409,10 @@
     <tableColumn id="4" xr3:uid="{C76F51ED-3337-4D5D-8179-3AD6BAFD9B3A}" name="gamma2" dataDxfId="13">
       <calculatedColumnFormula>EXP($N$7*(1+$N$7*Table5[[#This Row],[x2]]/$M$7/Table5[[#This Row],[x1]])^-2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{56034EF9-0D0F-4BED-B63C-5504FFC5116F}" name="P" dataDxfId="11">
+    <tableColumn id="5" xr3:uid="{56034EF9-0D0F-4BED-B63C-5504FFC5116F}" name="P" dataDxfId="12">
       <calculatedColumnFormula>Table5[[#This Row],[x1]]*Table5[[#This Row],[gamma1]]*$M$10+Table5[[#This Row],[x2]]*Table5[[#This Row],[gamma2]]*$N$10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{A5E53591-E3AD-42E2-AFF5-8A100EE0BD20}" name="y1" dataDxfId="12">
+    <tableColumn id="6" xr3:uid="{A5E53591-E3AD-42E2-AFF5-8A100EE0BD20}" name="y1" dataDxfId="11">
       <calculatedColumnFormula>Table5[[#This Row],[x1]]*Table5[[#This Row],[gamma1]]*$M$10/Table5[[#This Row],[P]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10725,7 +10742,7 @@
   <dimension ref="B2:V103"/>
   <sheetViews>
     <sheetView zoomScale="80" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3:M4"/>
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11865,11 +11882,6 @@
     </row>
     <row r="29" spans="11:22" x14ac:dyDescent="0.3">
       <c r="K29" s="11"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="12"/>
-      <c r="P29" s="12"/>
       <c r="Q29">
         <v>0.26</v>
       </c>
@@ -11896,11 +11908,6 @@
     </row>
     <row r="30" spans="11:22" x14ac:dyDescent="0.3">
       <c r="K30" s="11"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="12"/>
-      <c r="O30" s="12"/>
-      <c r="P30" s="12"/>
       <c r="Q30">
         <v>0.27</v>
       </c>
@@ -11927,11 +11934,6 @@
     </row>
     <row r="31" spans="11:22" x14ac:dyDescent="0.3">
       <c r="K31" s="11"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="12"/>
-      <c r="O31" s="12"/>
-      <c r="P31" s="12"/>
       <c r="Q31">
         <v>0.28000000000000003</v>
       </c>
@@ -11958,11 +11960,6 @@
     </row>
     <row r="32" spans="11:22" x14ac:dyDescent="0.3">
       <c r="K32" s="11"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="12"/>
-      <c r="O32" s="12"/>
-      <c r="P32" s="12"/>
       <c r="Q32">
         <v>0.28999999999999998</v>
       </c>
@@ -11989,11 +11986,6 @@
     </row>
     <row r="33" spans="11:22" x14ac:dyDescent="0.3">
       <c r="K33" s="11"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="12"/>
-      <c r="N33" s="12"/>
-      <c r="O33" s="12"/>
-      <c r="P33" s="12"/>
       <c r="Q33">
         <v>0.3</v>
       </c>
@@ -12020,11 +12012,6 @@
     </row>
     <row r="34" spans="11:22" x14ac:dyDescent="0.3">
       <c r="K34" s="11"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="12"/>
-      <c r="N34" s="12"/>
-      <c r="O34" s="12"/>
-      <c r="P34" s="12"/>
       <c r="Q34">
         <v>0.31</v>
       </c>
@@ -12051,11 +12038,7 @@
     </row>
     <row r="35" spans="11:22" x14ac:dyDescent="0.3">
       <c r="K35" s="11"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="12"/>
-      <c r="N35" s="14"/>
-      <c r="O35" s="12"/>
-      <c r="P35" s="12"/>
+      <c r="N35" s="13"/>
       <c r="Q35">
         <v>0.32</v>
       </c>
@@ -12082,11 +12065,6 @@
     </row>
     <row r="36" spans="11:22" x14ac:dyDescent="0.3">
       <c r="K36" s="11"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="12"/>
-      <c r="N36" s="12"/>
-      <c r="O36" s="12"/>
-      <c r="P36" s="12"/>
       <c r="Q36">
         <v>0.33</v>
       </c>
@@ -12113,11 +12091,6 @@
     </row>
     <row r="37" spans="11:22" x14ac:dyDescent="0.3">
       <c r="K37" s="11"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="12"/>
-      <c r="O37" s="12"/>
-      <c r="P37" s="12"/>
       <c r="Q37">
         <v>0.34</v>
       </c>
@@ -12144,11 +12117,6 @@
     </row>
     <row r="38" spans="11:22" x14ac:dyDescent="0.3">
       <c r="K38" s="11"/>
-      <c r="L38" s="12"/>
-      <c r="M38" s="12"/>
-      <c r="N38" s="12"/>
-      <c r="O38" s="12"/>
-      <c r="P38" s="12"/>
       <c r="Q38">
         <v>0.35</v>
       </c>
@@ -12175,11 +12143,6 @@
     </row>
     <row r="39" spans="11:22" x14ac:dyDescent="0.3">
       <c r="K39" s="11"/>
-      <c r="L39" s="12"/>
-      <c r="M39" s="12"/>
-      <c r="N39" s="12"/>
-      <c r="O39" s="12"/>
-      <c r="P39" s="12"/>
       <c r="Q39">
         <v>0.36</v>
       </c>
@@ -12205,12 +12168,7 @@
       </c>
     </row>
     <row r="40" spans="11:22" x14ac:dyDescent="0.3">
-      <c r="K40" s="13"/>
-      <c r="L40" s="12"/>
-      <c r="M40" s="12"/>
-      <c r="N40" s="12"/>
-      <c r="O40" s="12"/>
-      <c r="P40" s="12"/>
+      <c r="K40" s="12"/>
       <c r="Q40">
         <v>0.37</v>
       </c>
@@ -13828,7 +13786,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB7A95C1-EF82-4DDD-B97B-1D4DFA8DE3BD}">
   <dimension ref="B2:U103"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
@@ -13909,11 +13867,10 @@
         <f>Table15[[#This Row],[y2]]*Table15[[#This Row],[P/kPa]]/Table15[[#This Row],[x2]]/$B$3</f>
         <v>1</v>
       </c>
-      <c r="K3" s="15"/>
-      <c r="M3" s="16" t="s">
+      <c r="M3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="16" t="s">
+      <c r="N3" s="14" t="s">
         <v>9</v>
       </c>
       <c r="P3">
@@ -13970,15 +13927,15 @@
         <f>Table15[[#This Row],[ExcessG/RT]]/Table15[[#This Row],[x1]]/Table15[[#This Row],[x2]]</f>
         <v>0.62293504917215348</v>
       </c>
-      <c r="K4" s="15">
+      <c r="K4">
         <f>1/Table15[[#This Row],[Y]]</f>
         <v>1.6053037974487792</v>
       </c>
-      <c r="M4" s="17">
+      <c r="M4" s="15">
         <f>SLOPE(K4:K13,C4:C13)</f>
         <v>0.64141954187908601</v>
       </c>
-      <c r="N4" s="17">
+      <c r="N4" s="15">
         <f>INTERCEPT(K4:K13,C4:C13)</f>
         <v>1.418467875650457</v>
       </c>
@@ -14040,7 +13997,7 @@
         <f>Table15[[#This Row],[ExcessG/RT]]/Table15[[#This Row],[x1]]/Table15[[#This Row],[x2]]</f>
         <v>0.61229227071827541</v>
       </c>
-      <c r="K5" s="15">
+      <c r="K5">
         <f>1/Table15[[#This Row],[Y]]</f>
         <v>1.6332069631173158</v>
       </c>
@@ -14102,14 +14059,14 @@
         <f>Table15[[#This Row],[ExcessG/RT]]/Table15[[#This Row],[x1]]/Table15[[#This Row],[x2]]</f>
         <v>0.63732548919746512</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K6">
         <f>1/Table15[[#This Row],[Y]]</f>
         <v>1.5690569684561384</v>
       </c>
-      <c r="M6" s="16" t="s">
+      <c r="M6" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="N6" s="16" t="s">
+      <c r="N6" s="14" t="s">
         <v>19</v>
       </c>
       <c r="P6">
@@ -14170,15 +14127,15 @@
         <f>Table15[[#This Row],[ExcessG/RT]]/Table15[[#This Row],[x1]]/Table15[[#This Row],[x2]]</f>
         <v>0.63464125817090966</v>
       </c>
-      <c r="K7" s="15">
+      <c r="K7">
         <f>1/Table15[[#This Row],[Y]]</f>
         <v>1.5756933340295043</v>
       </c>
-      <c r="M7" s="17">
+      <c r="M7" s="15">
         <f>1/N4</f>
         <v>0.70498600438267733</v>
       </c>
-      <c r="N7" s="17">
+      <c r="N7" s="15">
         <f>1/(M4+1/M7)</f>
         <v>0.48546342459789205</v>
       </c>
@@ -14240,7 +14197,7 @@
         <f>Table15[[#This Row],[ExcessG/RT]]/Table15[[#This Row],[x1]]/Table15[[#This Row],[x2]]</f>
         <v>0.59988279418281076</v>
       </c>
-      <c r="K8" s="15">
+      <c r="K8">
         <f>1/Table15[[#This Row],[Y]]</f>
         <v>1.6669923019916719</v>
       </c>
@@ -14302,14 +14259,14 @@
         <f>Table15[[#This Row],[ExcessG/RT]]/Table15[[#This Row],[x1]]/Table15[[#This Row],[x2]]</f>
         <v>0.59317062934109788</v>
       </c>
-      <c r="K9" s="15">
+      <c r="K9">
         <f>1/Table15[[#This Row],[Y]]</f>
         <v>1.6858555540937923</v>
       </c>
-      <c r="M9" s="16" t="s">
+      <c r="M9" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="N9" s="16" t="s">
+      <c r="N9" s="14" t="s">
         <v>16</v>
       </c>
       <c r="P9">
@@ -14370,15 +14327,15 @@
         <f>Table15[[#This Row],[ExcessG/RT]]/Table15[[#This Row],[x1]]/Table15[[#This Row],[x2]]</f>
         <v>0.57068203558385699</v>
       </c>
-      <c r="K10" s="15">
+      <c r="K10">
         <f>1/Table15[[#This Row],[Y]]</f>
         <v>1.7522892567958857</v>
       </c>
-      <c r="M10" s="17">
+      <c r="M10" s="15">
         <f>B14</f>
         <v>84.561999999999998</v>
       </c>
-      <c r="N10" s="17">
+      <c r="N10" s="15">
         <f>B3</f>
         <v>19.952999999999999</v>
       </c>
@@ -14440,7 +14397,7 @@
         <f>Table15[[#This Row],[ExcessG/RT]]/Table15[[#This Row],[x1]]/Table15[[#This Row],[x2]]</f>
         <v>0.5360073140598306</v>
       </c>
-      <c r="K11" s="15">
+      <c r="K11">
         <f>1/Table15[[#This Row],[Y]]</f>
         <v>1.8656461838660232</v>
       </c>
@@ -14502,7 +14459,7 @@
         <f>Table15[[#This Row],[ExcessG/RT]]/Table15[[#This Row],[x1]]/Table15[[#This Row],[x2]]</f>
         <v>0.52307377213777884</v>
       </c>
-      <c r="K12" s="15">
+      <c r="K12">
         <f>1/Table15[[#This Row],[Y]]</f>
         <v>1.9117762221436667</v>
       </c>
@@ -14564,7 +14521,7 @@
         <f>Table15[[#This Row],[ExcessG/RT]]/Table15[[#This Row],[x1]]/Table15[[#This Row],[x2]]</f>
         <v>0.49746797341859855</v>
       </c>
-      <c r="K13" s="15">
+      <c r="K13">
         <f>1/Table15[[#This Row],[Y]]</f>
         <v>2.0101796566480505</v>
       </c>
@@ -14614,7 +14571,6 @@
         <f>Table15[[#This Row],[y1]]*Table15[[#This Row],[P/kPa]]/Table15[[#This Row],[x1]]/$B$14</f>
         <v>1</v>
       </c>
-      <c r="K14" s="15"/>
       <c r="P14">
         <v>0.11</v>
       </c>
@@ -16874,8 +16830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB4489C2-EB51-4608-B78C-2215B08512BD}">
   <dimension ref="B2:V103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AG18" sqref="AG18"/>
+    <sheetView topLeftCell="P7" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16956,7 +16912,6 @@
         <f>Table157[[#This Row],[y2]]*Table157[[#This Row],[P/kPa]]/Table157[[#This Row],[x2]]/$B$3</f>
         <v>1</v>
       </c>
-      <c r="K3" s="15"/>
       <c r="Q3">
         <v>0</v>
       </c>
@@ -16966,7 +16921,7 @@
       </c>
       <c r="S3">
         <f>EXP(-LN(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)+Table7[[#This Row],[x2]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>2.0456331925440883</v>
+        <v>2.0454501631625326</v>
       </c>
       <c r="T3">
         <f>EXP(-LN(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)-Table7[[#This Row],[x1]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
@@ -17012,16 +16967,16 @@
       </c>
       <c r="J4">
         <f>-Table157[[#This Row],[x1]]*LN(Table157[[#This Row],[x1]]+Table157[[#This Row],[x2]]*$M$5)-Table157[[#This Row],[x2]]*LN(Table157[[#This Row],[x2]]+Table157[[#This Row],[x1]]*$N$5)</f>
-        <v>9.2742814861280026E-2</v>
-      </c>
-      <c r="K4" s="15">
+        <v>9.2728749971922736E-2</v>
+      </c>
+      <c r="K4">
         <f>(Table157[[#This Row],[ExcessG/RT Experiment]]-Table157[[#This Row],[ExcessG/RT Wilson]])^2</f>
-        <v>2.9414269392218317E-5</v>
-      </c>
-      <c r="M4" s="18" t="s">
+        <v>2.9261905573349598E-5</v>
+      </c>
+      <c r="M4" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="18" t="s">
+      <c r="N4" s="16" t="s">
         <v>22</v>
       </c>
       <c r="Q4">
@@ -17033,19 +16988,19 @@
       </c>
       <c r="S4">
         <f>EXP(-LN(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)+Table7[[#This Row],[x2]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>2.0027663403944955</v>
+        <v>2.0025877362615239</v>
       </c>
       <c r="T4">
         <f>EXP(-LN(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)-Table7[[#This Row],[x1]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.0001061284399069</v>
+        <v>1.0001061268778872</v>
       </c>
       <c r="U4">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8+Table7[[#This Row],[x2]]*Table7[[#This Row],[gamma2]]*$N$8</f>
-        <v>21.449145677718239</v>
+        <v>21.448994615636007</v>
       </c>
       <c r="V4">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8/Table7[[#This Row],[P]]</f>
-        <v>7.8957889428841632E-2</v>
+        <v>7.8951404104646711E-2</v>
       </c>
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.3">
@@ -17080,17 +17035,17 @@
       </c>
       <c r="J5">
         <f>-Table157[[#This Row],[x1]]*LN(Table157[[#This Row],[x1]]+Table157[[#This Row],[x2]]*$M$5)-Table157[[#This Row],[x2]]*LN(Table157[[#This Row],[x2]]+Table157[[#This Row],[x1]]*$N$5)</f>
-        <v>0.11001582354431279</v>
-      </c>
-      <c r="K5" s="15">
-        <f>Table157[[#This Row],[ExcessG/RT Experiment]]-Table157[[#This Row],[ExcessG/RT Wilson]]</f>
-        <v>-6.084653868172224E-3</v>
-      </c>
-      <c r="M5" s="19">
-        <v>0.4763</v>
-      </c>
-      <c r="N5" s="19">
-        <v>1.026</v>
+        <v>0.10999837364485583</v>
+      </c>
+      <c r="K5">
+        <f>(Table157[[#This Row],[ExcessG/RT Experiment]]-Table157[[#This Row],[ExcessG/RT Wilson]])^2</f>
+        <v>3.6810963997994299E-5</v>
+      </c>
+      <c r="M5" s="17">
+        <v>0.4762647429225455</v>
+      </c>
+      <c r="N5" s="17">
+        <v>1.0261635027967138</v>
       </c>
       <c r="Q5">
         <v>0.02</v>
@@ -17101,19 +17056,19 @@
       </c>
       <c r="S5">
         <f>EXP(-LN(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)+Table7[[#This Row],[x2]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.9618954620115707</v>
+        <v>1.9617212592970565</v>
       </c>
       <c r="T5">
         <f>EXP(-LN(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)-Table7[[#This Row],[x1]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.0004199018777975</v>
+        <v>1.0004198943603708</v>
       </c>
       <c r="U5">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8+Table7[[#This Row],[x2]]*Table7[[#This Row],[gamma2]]*$N$8</f>
-        <v>22.880186817296789</v>
+        <v>22.879892051702583</v>
       </c>
       <c r="V5">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8/Table7[[#This Row],[P]]</f>
-        <v>0.14501787540756025</v>
+        <v>0.14500686695008544</v>
       </c>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.3">
@@ -17148,11 +17103,11 @@
       </c>
       <c r="J6">
         <f>-Table157[[#This Row],[x1]]*LN(Table157[[#This Row],[x1]]+Table157[[#This Row],[x2]]*$M$5)-Table157[[#This Row],[x2]]*LN(Table157[[#This Row],[x2]]+Table157[[#This Row],[x1]]*$N$5)</f>
-        <v>0.13231519522952653</v>
-      </c>
-      <c r="K6" s="15">
-        <f>Table157[[#This Row],[ExcessG/RT Experiment]]-Table157[[#This Row],[ExcessG/RT Wilson]]</f>
-        <v>2.5076915443984771E-3</v>
+        <v>0.13229261651926635</v>
+      </c>
+      <c r="K6">
+        <f>(Table157[[#This Row],[ExcessG/RT Experiment]]-Table157[[#This Row],[ExcessG/RT Wilson]])^2</f>
+        <v>6.4022675616103822E-6</v>
       </c>
       <c r="Q6">
         <v>0.03</v>
@@ -17163,19 +17118,19 @@
       </c>
       <c r="S6">
         <f>EXP(-LN(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)+Table7[[#This Row],[x2]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.9229022342401454</v>
+        <v>1.9227323992329999</v>
       </c>
       <c r="T6">
         <f>EXP(-LN(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)-Table7[[#This Row],[x1]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.0009347173169978</v>
+        <v>1.0009346976340592</v>
       </c>
       <c r="U6">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8+Table7[[#This Row],[x2]]*Table7[[#This Row],[gamma2]]*$N$8</f>
-        <v>24.250634664141728</v>
+        <v>24.250203435553839</v>
       </c>
       <c r="V6">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8/Table7[[#This Row],[P]]</f>
-        <v>0.20115489056323635</v>
+        <v>0.20114070083085997</v>
       </c>
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.3">
@@ -17210,16 +17165,16 @@
       </c>
       <c r="J7">
         <f>-Table157[[#This Row],[x1]]*LN(Table157[[#This Row],[x1]]+Table157[[#This Row],[x2]]*$M$5)-Table157[[#This Row],[x2]]*LN(Table157[[#This Row],[x2]]+Table157[[#This Row],[x1]]*$N$5)</f>
-        <v>0.14190600222978961</v>
-      </c>
-      <c r="K7" s="15">
-        <f>Table157[[#This Row],[ExcessG/RT Experiment]]-Table157[[#This Row],[ExcessG/RT Wilson]]</f>
-        <v>5.7130712133710015E-3</v>
-      </c>
-      <c r="M7" s="18" t="s">
+        <v>0.14188059000676845</v>
+      </c>
+      <c r="K7">
+        <f>(Table157[[#This Row],[ExcessG/RT Experiment]]-Table157[[#This Row],[ExcessG/RT Wilson]])^2</f>
+        <v>3.2930192149747189E-5</v>
+      </c>
+      <c r="M7" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="N7" s="18" t="s">
+      <c r="N7" s="16" t="s">
         <v>16</v>
       </c>
       <c r="Q7">
@@ -17231,19 +17186,19 @@
       </c>
       <c r="S7">
         <f>EXP(-LN(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)+Table7[[#This Row],[x2]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.8856770245203076</v>
+        <v>1.8855115152077686</v>
       </c>
       <c r="T7">
         <f>EXP(-LN(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)-Table7[[#This Row],[x1]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.0016443685340097</v>
+        <v>1.0016443287657448</v>
       </c>
       <c r="U7">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8+Table7[[#This Row],[x2]]*Table7[[#This Row],[gamma2]]*$N$8</f>
-        <v>25.56464250384418</v>
+        <v>25.56408191014836</v>
       </c>
       <c r="V7">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8/Table7[[#This Row],[P]]</f>
-        <v>0.249495560946739</v>
+        <v>0.24947913296382332</v>
       </c>
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.3">
@@ -17278,17 +17233,17 @@
       </c>
       <c r="J8">
         <f>-Table157[[#This Row],[x1]]*LN(Table157[[#This Row],[x1]]+Table157[[#This Row],[x2]]*$M$5)-Table157[[#This Row],[x2]]*LN(Table157[[#This Row],[x2]]+Table157[[#This Row],[x1]]*$N$5)</f>
-        <v>0.14644608675769141</v>
-      </c>
-      <c r="K8" s="15">
-        <f>Table157[[#This Row],[ExcessG/RT Experiment]]-Table157[[#This Row],[ExcessG/RT Wilson]]</f>
-        <v>1.7818262955234532E-3</v>
-      </c>
-      <c r="M8" s="19">
+        <v>0.14641842243141226</v>
+      </c>
+      <c r="K8">
+        <f>(Table157[[#This Row],[ExcessG/RT Experiment]]-Table157[[#This Row],[ExcessG/RT Wilson]])^2</f>
+        <v>3.2742563103915827E-6</v>
+      </c>
+      <c r="M8" s="17">
         <f>B14</f>
         <v>84.561999999999998</v>
       </c>
-      <c r="N8" s="19">
+      <c r="N8" s="17">
         <f>B3</f>
         <v>19.952999999999999</v>
       </c>
@@ -17301,19 +17256,19 @@
       </c>
       <c r="S8">
         <f>EXP(-LN(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)+Table7[[#This Row],[x2]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.8501181413898533</v>
+        <v>1.8499569088238967</v>
       </c>
       <c r="T8">
         <f>EXP(-LN(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)-Table7[[#This Row],[x1]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.0025430192693399</v>
+        <v>1.0025429498824738</v>
       </c>
       <c r="U8">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8+Table7[[#This Row],[x2]]*Table7[[#This Row],[gamma2]]*$N$8</f>
-        <v>26.826038333917516</v>
+        <v>26.825355311253066</v>
       </c>
       <c r="V8">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8/Table7[[#This Row],[P]]</f>
-        <v>0.29160043746452402</v>
+        <v>0.29158244934474814</v>
       </c>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.3">
@@ -17348,11 +17303,11 @@
       </c>
       <c r="J9">
         <f>-Table157[[#This Row],[x1]]*LN(Table157[[#This Row],[x1]]+Table157[[#This Row],[x2]]*$M$5)-Table157[[#This Row],[x2]]*LN(Table157[[#This Row],[x2]]+Table157[[#This Row],[x1]]*$N$5)</f>
-        <v>0.14346713341078451</v>
-      </c>
-      <c r="K9" s="15">
-        <f>Table157[[#This Row],[ExcessG/RT Experiment]]-Table157[[#This Row],[ExcessG/RT Wilson]]</f>
-        <v>4.3538109132127134E-3</v>
+        <v>0.14343861113210277</v>
+      </c>
+      <c r="K9">
+        <f>(Table157[[#This Row],[ExcessG/RT Experiment]]-Table157[[#This Row],[ExcessG/RT Wilson]])^2</f>
+        <v>1.9204844204779891E-5</v>
       </c>
       <c r="Q9">
         <v>0.06</v>
@@ -17363,19 +17318,19 @@
       </c>
       <c r="S9">
         <f>EXP(-LN(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)+Table7[[#This Row],[x2]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.816131158736773</v>
+        <v>1.8159741482162663</v>
       </c>
       <c r="T9">
         <f>EXP(-LN(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)-Table7[[#This Row],[x1]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.003625178556909</v>
+        <v>1.0036250684912662</v>
       </c>
       <c r="U9">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8+Table7[[#This Row],[x2]]*Table7[[#This Row],[gamma2]]*$N$8</f>
-        <v>28.038354179187181</v>
+        <v>28.037555487397693</v>
       </c>
       <c r="V9">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8/Table7[[#This Row],[P]]</f>
-        <v>0.32864058010743996</v>
+        <v>0.32862152905695441</v>
       </c>
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.3">
@@ -17410,11 +17365,11 @@
       </c>
       <c r="J10">
         <f>-Table157[[#This Row],[x1]]*LN(Table157[[#This Row],[x1]]+Table157[[#This Row],[x2]]*$M$5)-Table157[[#This Row],[x2]]*LN(Table157[[#This Row],[x2]]+Table157[[#This Row],[x1]]*$N$5)</f>
-        <v>0.13414540143537937</v>
-      </c>
-      <c r="K10" s="15">
-        <f>Table157[[#This Row],[ExcessG/RT Experiment]]-Table157[[#This Row],[ExcessG/RT Wilson]]</f>
-        <v>2.305038509223617E-3</v>
+        <v>0.13411754746636714</v>
+      </c>
+      <c r="K10">
+        <f>(Table157[[#This Row],[ExcessG/RT Experiment]]-Table157[[#This Row],[ExcessG/RT Wilson]])^2</f>
+        <v>5.4423873150093729E-6</v>
       </c>
       <c r="Q10">
         <v>7.0000000000000007E-2</v>
@@ -17425,19 +17380,19 @@
       </c>
       <c r="S10">
         <f>EXP(-LN(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)+Table7[[#This Row],[x2]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.7836283056901641</v>
+        <v>1.7834754577833698</v>
       </c>
       <c r="T10">
         <f>EXP(-LN(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)-Table7[[#This Row],[x1]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.0048856779979529</v>
+        <v>1.0048855147442821</v>
       </c>
       <c r="U10">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8+Table7[[#This Row],[x2]]*Table7[[#This Row],[gamma2]]*$N$8</f>
-        <v>29.204852432780648</v>
+        <v>29.203944644669587</v>
       </c>
       <c r="V10">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8/Table7[[#This Row],[P]]</f>
-        <v>0.36151192338001409</v>
+        <v>0.36149218007103423</v>
       </c>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.3">
@@ -17472,11 +17427,11 @@
       </c>
       <c r="J11">
         <f>-Table157[[#This Row],[x1]]*LN(Table157[[#This Row],[x1]]+Table157[[#This Row],[x2]]*$M$5)-Table157[[#This Row],[x2]]*LN(Table157[[#This Row],[x2]]+Table157[[#This Row],[x1]]*$N$5)</f>
-        <v>0.11902535646772515</v>
-      </c>
-      <c r="K11" s="15">
-        <f>Table157[[#This Row],[ExcessG/RT Experiment]]-Table157[[#This Row],[ExcessG/RT Wilson]]</f>
-        <v>-2.467435742700877E-3</v>
+        <v>0.11899962989417655</v>
+      </c>
+      <c r="K11">
+        <f>(Table157[[#This Row],[ExcessG/RT Experiment]]-Table157[[#This Row],[ExcessG/RT Wilson]])^2</f>
+        <v>5.9619436667222966E-6</v>
       </c>
       <c r="Q11">
         <v>0.08</v>
@@ -17487,19 +17442,19 @@
       </c>
       <c r="S11">
         <f>EXP(-LN(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)+Table7[[#This Row],[x2]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.7525279150202564</v>
+        <v>1.7523791664488881</v>
       </c>
       <c r="T11">
         <f>EXP(-LN(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)-Table7[[#This Row],[x1]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.0063196508050138</v>
+        <v>1.0063194204749293</v>
       </c>
       <c r="U11">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8+Table7[[#This Row],[x2]]*Table7[[#This Row],[gamma2]]*$N$8</f>
-        <v>30.328549557106875</v>
+        <v>30.327539050857435</v>
       </c>
       <c r="V11">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8/Table7[[#This Row],[P]]</f>
-        <v>0.39091158057762354</v>
+        <v>0.3908914253141455</v>
       </c>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.3">
@@ -17534,11 +17489,11 @@
       </c>
       <c r="J12">
         <f>-Table157[[#This Row],[x1]]*LN(Table157[[#This Row],[x1]]+Table157[[#This Row],[x2]]*$M$5)-Table157[[#This Row],[x2]]*LN(Table157[[#This Row],[x2]]+Table157[[#This Row],[x1]]*$N$5)</f>
-        <v>0.10746756476187763</v>
-      </c>
-      <c r="K12" s="15">
-        <f>Table157[[#This Row],[ExcessG/RT Experiment]]-Table157[[#This Row],[ExcessG/RT Wilson]]</f>
-        <v>-3.2975538090820322E-3</v>
+        <v>0.10744380823827998</v>
+      </c>
+      <c r="K12">
+        <f>(Table157[[#This Row],[ExcessG/RT Experiment]]-Table157[[#This Row],[ExcessG/RT Wilson]])^2</f>
+        <v>1.0717748666444902E-5</v>
       </c>
       <c r="Q12">
         <v>0.09</v>
@@ -17549,19 +17504,19 @@
       </c>
       <c r="S12">
         <f>EXP(-LN(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)+Table7[[#This Row],[x2]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.7227539237711185</v>
+        <v>1.7226092081742386</v>
       </c>
       <c r="T12">
         <f>EXP(-LN(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)-Table7[[#This Row],[x1]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.0079225124591167</v>
+        <v>1.0079221998479142</v>
       </c>
       <c r="U12">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8+Table7[[#This Row],[x2]]*Table7[[#This Row],[gamma2]]*$N$8</f>
-        <v>31.412237438072047</v>
+        <v>31.411130392291238</v>
       </c>
       <c r="V12">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8/Table7[[#This Row],[P]]</f>
-        <v>0.41739008827442203</v>
+        <v>0.41736973562607282</v>
       </c>
     </row>
     <row r="13" spans="2:22" x14ac:dyDescent="0.3">
@@ -17596,11 +17551,11 @@
       </c>
       <c r="J13">
         <f>-Table157[[#This Row],[x1]]*LN(Table157[[#This Row],[x1]]+Table157[[#This Row],[x2]]*$M$5)-Table157[[#This Row],[x2]]*LN(Table157[[#This Row],[x2]]+Table157[[#This Row],[x1]]*$N$5)</f>
-        <v>9.1839462747424772E-2</v>
-      </c>
-      <c r="K13" s="15">
-        <f>Table157[[#This Row],[ExcessG/RT Experiment]]-Table157[[#This Row],[ExcessG/RT Wilson]]</f>
-        <v>-5.8082269680455462E-3</v>
+        <v>9.1818650031449234E-2</v>
+      </c>
+      <c r="K13">
+        <f>(Table157[[#This Row],[ExcessG/RT Experiment]]-Table157[[#This Row],[ExcessG/RT Wilson]])^2</f>
+        <v>3.3494163725063056E-5</v>
       </c>
       <c r="Q13">
         <v>0.1</v>
@@ -17611,19 +17566,19 @@
       </c>
       <c r="S13">
         <f>EXP(-LN(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)+Table7[[#This Row],[x2]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.6942354205913777</v>
+        <v>1.6940946691849375</v>
       </c>
       <c r="T13">
         <f>EXP(-LN(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)-Table7[[#This Row],[x1]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.0096899428387784</v>
+        <v>1.0096895314818022</v>
       </c>
       <c r="U13">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8+Table7[[#This Row],[x2]]*Table7[[#This Row],[gamma2]]*$N$8</f>
-        <v>32.458502650120735</v>
+        <v>32.457305041052429</v>
       </c>
       <c r="V13">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8/Table7[[#This Row],[P]]</f>
-        <v>0.44138799987286287</v>
+        <v>0.44136761580921324</v>
       </c>
     </row>
     <row r="14" spans="2:22" x14ac:dyDescent="0.3">
@@ -17648,7 +17603,6 @@
         <f>Table157[[#This Row],[y1]]*Table157[[#This Row],[P/kPa]]/Table157[[#This Row],[x1]]/$B$14</f>
         <v>1</v>
       </c>
-      <c r="K14" s="15"/>
       <c r="Q14">
         <v>0.11</v>
       </c>
@@ -17658,19 +17612,19 @@
       </c>
       <c r="S14">
         <f>EXP(-LN(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)+Table7[[#This Row],[x2]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.6669062348746366</v>
+        <v>1.6667693770203074</v>
       </c>
       <c r="T14">
         <f>EXP(-LN(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)-Table7[[#This Row],[x1]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.0116178696933575</v>
+        <v>1.0116173419165253</v>
       </c>
       <c r="U14">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8+Table7[[#This Row],[x2]]*Table7[[#This Row],[gamma2]]*$N$8</f>
-        <v>33.469743858734084</v>
+        <v>33.468461459256815</v>
       </c>
       <c r="V14">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8/Table7[[#This Row],[P]]</f>
-        <v>0.4632620380701068</v>
+        <v>0.46324175210231822</v>
       </c>
     </row>
     <row r="15" spans="2:22" x14ac:dyDescent="0.3">
@@ -17683,25 +17637,25 @@
       </c>
       <c r="S15">
         <f>EXP(-LN(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)+Table7[[#This Row],[x2]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.6407045633853581</v>
+        <v>1.6405715270804808</v>
       </c>
       <c r="T15">
         <f>EXP(-LN(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)-Table7[[#This Row],[x1]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.0137024533456103</v>
+        <v>1.013701790310638</v>
       </c>
       <c r="U15">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8+Table7[[#This Row],[x2]]*Table7[[#This Row],[gamma2]]*$N$8</f>
-        <v>34.448187560091483</v>
+        <v>34.446825940177533</v>
       </c>
       <c r="V15">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8/Table7[[#This Row],[P]]</f>
-        <v>0.48330412407435536</v>
+        <v>0.48328403800306008</v>
       </c>
     </row>
     <row r="16" spans="2:22" x14ac:dyDescent="0.3">
       <c r="K16">
         <f>SUM(K4:K13)</f>
-        <v>-9.6701764287919836E-4</v>
+        <v>1.8350067317111256E-4</v>
       </c>
       <c r="Q16">
         <v>0.13</v>
@@ -17712,19 +17666,19 @@
       </c>
       <c r="S16">
         <f>EXP(-LN(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)+Table7[[#This Row],[x2]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.6155726305391851</v>
+        <v>1.6154433428380925</v>
       </c>
       <c r="T16">
         <f>EXP(-LN(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)-Table7[[#This Row],[x1]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.0159400725193497</v>
+        <v>1.0159392542641648</v>
       </c>
       <c r="U16">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8+Table7[[#This Row],[x2]]*Table7[[#This Row],[gamma2]]*$N$8</f>
-        <v>35.395902334146463</v>
+        <v>35.394466862509326</v>
       </c>
       <c r="V16">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8/Table7[[#This Row],[P]]</f>
-        <v>0.50175544881481726</v>
+        <v>0.50173564312760222</v>
       </c>
     </row>
     <row r="17" spans="17:22" x14ac:dyDescent="0.3">
@@ -17737,19 +17691,19 @@
       </c>
       <c r="S17">
         <f>EXP(-LN(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)+Table7[[#This Row],[x2]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.5914563789385483</v>
+        <v>1.5913307663141378</v>
       </c>
       <c r="T17">
         <f>EXP(-LN(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)-Table7[[#This Row],[x1]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.0183273111979894</v>
+        <v>1.0183263166727659</v>
       </c>
       <c r="U17">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8+Table7[[#This Row],[x2]]*Table7[[#This Row],[gamma2]]*$N$8</f>
-        <v>36.314811766899012</v>
+        <v>36.31330761359952</v>
       </c>
       <c r="V17">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8/Table7[[#This Row],[P]]</f>
-        <v>0.51881703050394357</v>
+        <v>0.5187975691174016</v>
       </c>
     </row>
     <row r="18" spans="17:22" x14ac:dyDescent="0.3">
@@ -17762,19 +17716,19 @@
       </c>
       <c r="S18">
         <f>EXP(-LN(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)+Table7[[#This Row],[x2]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.5683051871432274</v>
+        <v>1.5681831757965152</v>
       </c>
       <c r="T18">
         <f>EXP(-LN(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)-Table7[[#This Row],[x1]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.0208609464285743</v>
+        <v>1.020859753527783</v>
       </c>
       <c r="U18">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8+Table7[[#This Row],[x2]]*Table7[[#This Row],[gamma2]]*$N$8</f>
-        <v>37.206706179756779</v>
+        <v>37.205138319574615</v>
       </c>
       <c r="V18">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8/Table7[[#This Row],[P]]</f>
-        <v>0.53465774124622811</v>
+        <v>0.53463867506414808</v>
       </c>
     </row>
     <row r="19" spans="17:22" x14ac:dyDescent="0.3">
@@ -17787,19 +17741,19 @@
       </c>
       <c r="S19">
         <f>EXP(-LN(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)+Table7[[#This Row],[x2]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.5460716119883073</v>
+        <v>1.5459531281126702</v>
       </c>
       <c r="T19">
         <f>EXP(-LN(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)-Table7[[#This Row],[x1]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.0235379369938327</v>
+        <v>1.0235365225846602</v>
       </c>
       <c r="U19">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8+Table7[[#This Row],[x2]]*Table7[[#This Row],[gamma2]]*$N$8</f>
-        <v>38.073253288216705</v>
+        <v>38.071626504624831</v>
       </c>
       <c r="V19">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8/Table7[[#This Row],[P]]</f>
-        <v>0.54942048335404059</v>
+        <v>0.54940185296715094</v>
       </c>
     </row>
     <row r="20" spans="17:22" x14ac:dyDescent="0.3">
@@ -17812,19 +17766,19 @@
       </c>
       <c r="S20">
         <f>EXP(-LN(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)+Table7[[#This Row],[x2]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.5247111530547612</v>
+        <v>1.5245961230607088</v>
       </c>
       <c r="T20">
         <f>EXP(-LN(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)-Table7[[#This Row],[x1]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.0263554128818937</v>
+        <v>1.0263537528293465</v>
       </c>
       <c r="U20">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8+Table7[[#This Row],[x2]]*Table7[[#This Row],[gamma2]]*$N$8</f>
-        <v>38.916007898367752</v>
+        <v>38.914326787973422</v>
       </c>
       <c r="V20">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8/Table7[[#This Row],[P]]</f>
-        <v>0.56322699456806735</v>
+        <v>0.56320883232335961</v>
       </c>
     </row>
     <row r="21" spans="17:22" x14ac:dyDescent="0.3">
@@ -17837,19 +17791,19 @@
       </c>
       <c r="S21">
         <f>EXP(-LN(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)+Table7[[#This Row],[x2]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.5041820371558929</v>
+        <v>1.504070387861455</v>
       </c>
       <c r="T21">
         <f>EXP(-LN(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)-Table7[[#This Row],[x1]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.029310665489706</v>
+        <v>1.0293087346786838</v>
       </c>
       <c r="U21">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8+Table7[[#This Row],[x2]]*Table7[[#This Row],[gamma2]]*$N$8</f>
-        <v>39.736420737658989</v>
+        <v>39.73468971499716</v>
       </c>
       <c r="V21">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8/Table7[[#This Row],[P]]</f>
-        <v>0.57618162460660105</v>
+        <v>0.5761639562082812</v>
       </c>
     </row>
     <row r="22" spans="17:22" x14ac:dyDescent="0.3">
@@ -17862,19 +17816,19 @@
       </c>
       <c r="S22">
         <f>EXP(-LN(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)+Table7[[#This Row],[x2]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.4844450209305404</v>
+        <v>1.4843366797216984</v>
       </c>
       <c r="T22">
         <f>EXP(-LN(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)-Table7[[#This Row],[x1]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.0324011385019363</v>
+        <v>1.0323989108565363</v>
       </c>
       <c r="U22">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8+Table7[[#This Row],[x2]]*Table7[[#This Row],[gamma2]]*$N$8</f>
-        <v>40.535846505774984</v>
+        <v>40.534069808358566</v>
       </c>
       <c r="V22">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8/Table7[[#This Row],[P]]</f>
-        <v>0.58837433109947601</v>
+        <v>0.58835717685819855</v>
       </c>
     </row>
     <row r="23" spans="17:22" x14ac:dyDescent="0.3">
@@ -17887,19 +17841,19 @@
       </c>
       <c r="S23">
         <f>EXP(-LN(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)+Table7[[#This Row],[x2]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.4654632098351137</v>
+        <v>1.4653581048001398</v>
       </c>
       <c r="T23">
         <f>EXP(-LN(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)-Table7[[#This Row],[x1]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.035624419392315</v>
+        <v>1.0356218678925966</v>
       </c>
       <c r="U23">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8+Table7[[#This Row],[x2]]*Table7[[#This Row],[gamma2]]*$N$8</f>
-        <v>41.315551222123261</v>
+        <v>41.31373291567067</v>
       </c>
       <c r="V23">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8/Table7[[#This Row],[P]]</f>
-        <v>0.59988307687745446</v>
+        <v>0.59986645269281824</v>
       </c>
     </row>
     <row r="24" spans="17:22" x14ac:dyDescent="0.3">
@@ -17912,19 +17866,19 @@
       </c>
       <c r="S24">
         <f>EXP(-LN(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)+Table7[[#This Row],[x2]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.4472018920046035</v>
+        <v>1.4470999520456926</v>
       </c>
       <c r="T24">
         <f>EXP(-LN(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)-Table7[[#This Row],[x1]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.0389782314990599</v>
+        <v>1.0389753281954808</v>
       </c>
       <c r="U24">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8+Table7[[#This Row],[x2]]*Table7[[#This Row],[gamma2]]*$N$8</f>
-        <v>42.076718938205175</v>
+        <v>42.074862921979147</v>
       </c>
       <c r="V24">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8/Table7[[#This Row],[P]]</f>
-        <v>0.61077576367107822</v>
+        <v>0.61075968180997864</v>
       </c>
     </row>
     <row r="25" spans="17:22" x14ac:dyDescent="0.3">
@@ -17937,19 +17891,19 @@
       </c>
       <c r="S25">
         <f>EXP(-LN(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)+Table7[[#This Row],[x2]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.4296283856104806</v>
+        <v>1.4295295405356021</v>
       </c>
       <c r="T25">
         <f>EXP(-LN(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)-Table7[[#This Row],[x1]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.0424604266302229</v>
+        <v>1.0424571426559359</v>
       </c>
       <c r="U25">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8+Table7[[#This Row],[x2]]*Table7[[#This Row],[gamma2]]*$N$8</f>
-        <v>42.820457875869778</v>
+        <v>42.818567888072579</v>
       </c>
       <c r="V25">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8/Table7[[#This Row],[P]]</f>
-        <v>0.62111180353973117</v>
+        <v>0.62109627325714056</v>
       </c>
     </row>
     <row r="26" spans="17:22" x14ac:dyDescent="0.3">
@@ -17962,19 +17916,19 @@
       </c>
       <c r="S26">
         <f>EXP(-LN(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)+Table7[[#This Row],[x2]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.4127118984833777</v>
+        <v>1.4126160790809394</v>
       </c>
       <c r="T26">
         <f>EXP(-LN(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)-Table7[[#This Row],[x1]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.0460689781586203</v>
+        <v>1.0460652837398063</v>
       </c>
       <c r="U26">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8+Table7[[#This Row],[x2]]*Table7[[#This Row],[gamma2]]*$N$8</f>
-        <v>43.547806046020014</v>
+        <v>43.545885669200231</v>
       </c>
       <c r="V26">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8/Table7[[#This Row],[P]]</f>
-        <v>0.63094340481035471</v>
+        <v>0.63092843284751932</v>
       </c>
     </row>
     <row r="27" spans="17:22" x14ac:dyDescent="0.3">
@@ -17987,19 +17941,19 @@
       </c>
       <c r="S27">
         <f>EXP(-LN(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)+Table7[[#This Row],[x2]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.3964233988928922</v>
+        <v>1.3963305369914503</v>
       </c>
       <c r="T27">
         <f>EXP(-LN(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)-Table7[[#This Row],[x1]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.0498019745694505</v>
+        <v>1.0497978390338376</v>
       </c>
       <c r="U27">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8+Table7[[#This Row],[x2]]*Table7[[#This Row],[gamma2]]*$N$8</f>
-        <v>44.259736396647405</v>
+        <v>44.257789063081084</v>
       </c>
       <c r="V27">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8/Table7[[#This Row],[P]]</f>
-        <v>0.64031663125472438</v>
+        <v>0.64030222224128919</v>
       </c>
     </row>
     <row r="28" spans="17:22" x14ac:dyDescent="0.3">
@@ -18012,19 +17966,19 @@
       </c>
       <c r="S28">
         <f>EXP(-LN(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)+Table7[[#This Row],[x2]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.3807354964874754</v>
+        <v>1.3806455250024736</v>
       </c>
       <c r="T28">
         <f>EXP(-LN(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)-Table7[[#This Row],[x1]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.0536576134268187</v>
+        <v>1.0536530052105346</v>
       </c>
       <c r="U28">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8+Table7[[#This Row],[x2]]*Table7[[#This Row],[gamma2]]*$N$8</f>
-        <v>44.957161534022461</v>
+        <v>44.955190531039136</v>
       </c>
       <c r="V28">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8/Table7[[#This Row],[P]]</f>
-        <v>0.64927227982139468</v>
+        <v>0.64925843660171723</v>
       </c>
     </row>
     <row r="29" spans="17:22" x14ac:dyDescent="0.3">
@@ -18037,19 +17991,19 @@
       </c>
       <c r="S29">
         <f>EXP(-LN(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)+Table7[[#This Row],[x2]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.3656223324960115</v>
+        <v>1.3655351854652602</v>
       </c>
       <c r="T29">
         <f>EXP(-LN(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)-Table7[[#This Row],[x1]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.0576341957282303</v>
+        <v>1.0576290823811101</v>
       </c>
       <c r="U29">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8+Table7[[#This Row],[x2]]*Table7[[#This Row],[gamma2]]*$N$8</f>
-        <v>45.64093805638759</v>
+        <v>45.638946531616682</v>
       </c>
       <c r="V29">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8/Table7[[#This Row],[P]]</f>
-        <v>0.65784661217617446</v>
+        <v>0.6578333360754276</v>
       </c>
     </row>
     <row r="30" spans="17:22" x14ac:dyDescent="0.3">
@@ -18062,19 +18016,19 @@
       </c>
       <c r="S30">
         <f>EXP(-LN(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)+Table7[[#This Row],[x2]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.3510594783805752</v>
+        <v>1.3509750909899827</v>
       </c>
       <c r="T30">
         <f>EXP(-LN(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)-Table7[[#This Row],[x1]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.0617301206186631</v>
+        <v>1.061724468808134</v>
       </c>
       <c r="U30">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8+Table7[[#This Row],[x2]]*Table7[[#This Row],[gamma2]]*$N$8</f>
-        <v>46.31187053551497</v>
+        <v>46.309861502033577</v>
       </c>
       <c r="V30">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8/Table7[[#This Row],[P]]</f>
-        <v>0.66607196768840049</v>
+        <v>0.66605925873056537</v>
       </c>
     </row>
     <row r="31" spans="17:22" x14ac:dyDescent="0.3">
@@ -18087,19 +18041,19 @@
       </c>
       <c r="S31">
         <f>EXP(-LN(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)+Table7[[#This Row],[x2]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.3370238422084171</v>
+        <v>1.3369421508092938</v>
       </c>
       <c r="T31">
         <f>EXP(-LN(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)-Table7[[#This Row],[x1]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.065943880438182</v>
+        <v>1.0659376559518265</v>
       </c>
       <c r="U31">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8+Table7[[#This Row],[x2]]*Table7[[#This Row],[gamma2]]*$N$8</f>
-        <v>46.970715177947682</v>
+        <v>46.968691519314831</v>
       </c>
       <c r="V31">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8/Table7[[#This Row],[P]]</f>
-        <v>0.67397727968627252</v>
+        <v>0.67396513677347003</v>
       </c>
     </row>
     <row r="32" spans="17:22" x14ac:dyDescent="0.3">
@@ -18112,19 +18066,19 @@
       </c>
       <c r="S32">
         <f>EXP(-LN(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)+Table7[[#This Row],[x2]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.3234935820814093</v>
+        <v>1.3234145242004989</v>
       </c>
       <c r="T32">
         <f>EXP(-LN(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)-Table7[[#This Row],[x1]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.0702740560791559</v>
+        <v>1.0702672238260513</v>
       </c>
       <c r="U32">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8+Table7[[#This Row],[x2]]*Table7[[#This Row],[gamma2]]*$N$8</f>
-        <v>47.618183194583409</v>
+        <v>47.616147669749196</v>
       </c>
       <c r="V32">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8/Table7[[#This Row],[P]]</f>
-        <v>0.6815885123312021</v>
+        <v>0.68157693339179126</v>
       </c>
     </row>
     <row r="33" spans="17:22" x14ac:dyDescent="0.3">
@@ -18137,19 +18091,19 @@
       </c>
       <c r="S33">
         <f>EXP(-LN(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)+Table7[[#This Row],[x2]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.3104480260240314</v>
+        <v>1.3103715403672747</v>
       </c>
       <c r="T33">
         <f>EXP(-LN(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)-Table7[[#This Row],[x1]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.0747193126310863</v>
+        <v>1.0747118366420076</v>
       </c>
       <c r="U33">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8+Table7[[#This Row],[x2]]*Table7[[#This Row],[gamma2]]*$N$8</f>
-        <v>48.254943904442882</v>
+        <v>48.252899152523824</v>
       </c>
       <c r="V33">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8/Table7[[#This Row],[P]]</f>
-        <v>0.68892903199359867</v>
+        <v>0.68891801410491071</v>
       </c>
     </row>
     <row r="34" spans="17:22" x14ac:dyDescent="0.3">
@@ -18162,19 +18116,19 @@
       </c>
       <c r="S34">
         <f>EXP(-LN(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)+Table7[[#This Row],[x2]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.2978675977872685</v>
+        <v>1.2977936242382</v>
       </c>
       <c r="T34">
         <f>EXP(-LN(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)-Table7[[#This Row],[x1]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.0792783952928013</v>
+        <v>1.0792702387193653</v>
       </c>
       <c r="U34">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8+Table7[[#This Row],[x2]]*Table7[[#This Row],[gamma2]]*$N$8</f>
-        <v>48.881627595948281</v>
+        <v>48.87957614086308</v>
       </c>
       <c r="V34">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8/Table7[[#This Row],[P]]</f>
-        <v>0.69601992430561066</v>
+        <v>0.6960094637959926</v>
       </c>
     </row>
     <row r="35" spans="17:22" x14ac:dyDescent="0.3">
@@ -18187,19 +18141,19 @@
       </c>
       <c r="S35">
         <f>EXP(-LN(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)+Table7[[#This Row],[x2]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.2857337480763453</v>
+        <v>1.2856622276898868</v>
       </c>
       <c r="T35">
         <f>EXP(-LN(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)-Table7[[#This Row],[x1]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.0839501255333719</v>
+        <v>1.0839412506461965</v>
       </c>
       <c r="U35">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8+Table7[[#This Row],[x2]]*Table7[[#This Row],[gamma2]]*$N$8</f>
-        <v>49.498828166788023</v>
+        <v>49.496772421749526</v>
       </c>
       <c r="V35">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8/Table7[[#This Row],[P]]</f>
-        <v>0.70288026593910879</v>
+        <v>0.70287035847300638</v>
       </c>
     </row>
     <row r="36" spans="17:22" x14ac:dyDescent="0.3">
@@ -18212,19 +18166,19 @@
       </c>
       <c r="S36">
         <f>EXP(-LN(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)+Table7[[#This Row],[x2]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.274028890755551</v>
+        <v>1.2739597657478852</v>
       </c>
       <c r="T36">
         <f>EXP(-LN(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)-Table7[[#This Row],[x1]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.0887333974845743</v>
+        <v>1.0887237656705184</v>
       </c>
       <c r="U36">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8+Table7[[#This Row],[x2]]*Table7[[#This Row],[gamma2]]*$N$8</f>
-        <v>50.107105561429904</v>
+        <v>50.105047833290961</v>
       </c>
       <c r="V36">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8/Table7[[#This Row],[P]]</f>
-        <v>0.70952735847488135</v>
+        <v>0.70951799912396141</v>
       </c>
     </row>
     <row r="37" spans="17:22" x14ac:dyDescent="0.3">
@@ -18237,19 +18191,19 @@
       </c>
       <c r="S37">
         <f>EXP(-LN(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)+Table7[[#This Row],[x2]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.2627363436242287</v>
+        <v>1.2626695573593469</v>
       </c>
       <c r="T37">
         <f>EXP(-LN(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)-Table7[[#This Row],[x1]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.0936271745490529</v>
+        <v>1.0936167463075945</v>
       </c>
       <c r="U37">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8+Table7[[#This Row],[x2]]*Table7[[#This Row],[gamma2]]*$N$8</f>
-        <v>50.706988023540674</v>
+        <v>50.70493051699296</v>
       </c>
       <c r="V37">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8/Table7[[#This Row],[P]]</f>
-        <v>0.7159769303906024</v>
+        <v>0.71596811369333713</v>
       </c>
     </row>
     <row r="38" spans="17:22" x14ac:dyDescent="0.3">
@@ -18262,19 +18216,19 @@
       </c>
       <c r="S38">
         <f>EXP(-LN(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)+Table7[[#This Row],[x2]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.2518402733946961</v>
+        <v>1.251775770368144</v>
       </c>
       <c r="T38">
         <f>EXP(-LN(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)-Table7[[#This Row],[x1]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.0986304862095513</v>
+        <v>1.0986192211483623</v>
       </c>
       <c r="U38">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8+Table7[[#This Row],[x2]]*Table7[[#This Row],[gamma2]]*$N$8</f>
-        <v>51.298974178951262</v>
+        <v>51.296919000577475</v>
       </c>
       <c r="V38">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8/Table7[[#This Row],[P]]</f>
-        <v>0.72224331212422388</v>
+        <v>0.72223503213590223</v>
       </c>
     </row>
     <row r="39" spans="17:22" x14ac:dyDescent="0.3">
@@ -18287,19 +18241,19 @@
       </c>
       <c r="S39">
         <f>EXP(-LN(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)+Table7[[#This Row],[x2]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.2413256445359582</v>
+        <v>1.2412633703562308</v>
       </c>
       <c r="T39">
         <f>EXP(-LN(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)-Table7[[#This Row],[x1]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.1037424250257148</v>
+        <v>1.1037302818554795</v>
       </c>
       <c r="U39">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8+Table7[[#This Row],[x2]]*Table7[[#This Row],[gamma2]]*$N$8</f>
-        <v>51.883534963354265</v>
+        <v>51.881484125534811</v>
       </c>
       <c r="V39">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8/Table7[[#This Row],[P]]</f>
-        <v>0.72833958830793688</v>
+        <v>0.72833183864270123</v>
       </c>
     </row>
     <row r="40" spans="17:22" x14ac:dyDescent="0.3">
@@ -18312,19 +18266,19 @@
       </c>
       <c r="S40">
         <f>EXP(-LN(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)+Table7[[#This Row],[x2]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.2311781716768915</v>
+        <v>1.2311180730448743</v>
       </c>
       <c r="T40">
         <f>EXP(-LN(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)-Table7[[#This Row],[x1]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.1089621438059607</v>
+        <v>1.1089490803344841</v>
       </c>
       <c r="U40">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8+Table7[[#This Row],[x2]]*Table7[[#This Row],[gamma2]]*$N$8</f>
-        <v>52.461115407613292</v>
+        <v>52.459070832289441</v>
       </c>
       <c r="V40">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8/Table7[[#This Row],[P]]</f>
-        <v>0.73427773057120338</v>
+        <v>0.73427050443742248</v>
       </c>
     </row>
     <row r="41" spans="17:22" x14ac:dyDescent="0.3">
@@ -18337,19 +18291,19 @@
       </c>
       <c r="S41">
         <f>EXP(-LN(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)+Table7[[#This Row],[x2]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.2213842752895094</v>
+        <v>1.2213262999763181</v>
       </c>
       <c r="T41">
         <f>EXP(-LN(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)-Table7[[#This Row],[x1]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.1142888529428774</v>
+        <v>1.1142748260685247</v>
       </c>
       <c r="U41">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8+Table7[[#This Row],[x2]]*Table7[[#This Row],[gamma2]]*$N$8</f>
-        <v>53.032136292388891</v>
+        <v>53.030099814685087</v>
       </c>
       <c r="V41">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8/Table7[[#This Row],[P]]</f>
-        <v>0.7400687137452675</v>
+        <v>0.74006200397531863</v>
       </c>
     </row>
     <row r="42" spans="17:22" x14ac:dyDescent="0.3">
@@ -18362,19 +18316,19 @@
       </c>
       <c r="S42">
         <f>EXP(-LN(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)+Table7[[#This Row],[x2]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.2119310403972656</v>
+        <v>1.2118751372207843</v>
       </c>
       <c r="T42">
         <f>EXP(-LN(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)-Table7[[#This Row],[x1]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.1197218179014496</v>
+        <v>1.1197067836059551</v>
       </c>
       <c r="U42">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8+Table7[[#This Row],[x2]]*Table7[[#This Row],[gamma2]]*$N$8</f>
-        <v>53.596995682727147</v>
+        <v>53.594969054435616</v>
       </c>
       <c r="V42">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8/Table7[[#This Row],[P]]</f>
-        <v>0.74572261783936999</v>
+        <v>0.74571641691471857</v>
       </c>
     </row>
     <row r="43" spans="17:22" x14ac:dyDescent="0.3">
@@ -18387,19 +18341,19 @@
       </c>
       <c r="S43">
         <f>EXP(-LN(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)+Table7[[#This Row],[x2]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.2028061780753589</v>
+        <v>1.2027522968757378</v>
       </c>
       <c r="T43">
         <f>EXP(-LN(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)-Table7[[#This Row],[x1]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.1252603568502095</v>
+        <v>1.1252442701908891</v>
       </c>
       <c r="U43">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8+Table7[[#This Row],[x2]]*Table7[[#This Row],[gamma2]]*$N$8</f>
-        <v>54.156070352302748</v>
+        <v>54.154055245233742</v>
       </c>
       <c r="V43">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8/Table7[[#This Row],[P]]</f>
-        <v>0.75124871777986146</v>
+        <v>0.75124301785216863</v>
       </c>
     </row>
     <row r="44" spans="17:22" x14ac:dyDescent="0.3">
@@ -18412,19 +18366,19 @@
       </c>
       <c r="S44">
         <f>EXP(-LN(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)+Table7[[#This Row],[x2]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.1939979895299291</v>
+        <v>1.1939460811442784</v>
       </c>
       <c r="T44">
         <f>EXP(-LN(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)-Table7[[#This Row],[x1]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.1309038384261227</v>
+        <v>1.1308866535275226</v>
       </c>
       <c r="U44">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8+Table7[[#This Row],[x2]]*Table7[[#This Row],[gamma2]]*$N$8</f>
-        <v>54.709717106146933</v>
+        <v>54.707715115348662</v>
       </c>
       <c r="V44">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8/Table7[[#This Row],[P]]</f>
-        <v>0.75665556259122257</v>
+        <v>0.75665035550008997</v>
       </c>
     </row>
     <row r="45" spans="17:22" x14ac:dyDescent="0.3">
@@ -18437,19 +18391,19 @@
       </c>
       <c r="S45">
         <f>EXP(-LN(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)+Table7[[#This Row],[x2]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.1854953325611037</v>
+        <v>1.1854453487975796</v>
       </c>
       <c r="T45">
         <f>EXP(-LN(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)-Table7[[#This Row],[x1]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.1366516796247046</v>
+        <v>1.1366333496697114</v>
       </c>
       <c r="U45">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8+Table7[[#This Row],[x2]]*Table7[[#This Row],[gamma2]]*$N$8</f>
-        <v>55.258274009913464</v>
+        <v>55.25628665676544</v>
       </c>
       <c r="V45">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8/Table7[[#This Row],[P]]</f>
-        <v>0.76195104543981751</v>
+        <v>0.76194632272767615</v>
       </c>
     </row>
     <row r="46" spans="17:22" x14ac:dyDescent="0.3">
@@ -18462,19 +18416,19 @@
       </c>
       <c r="S46">
         <f>EXP(-LN(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)+Table7[[#This Row],[x2]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.1772875902312407</v>
+        <v>1.1772394838426961</v>
       </c>
       <c r="T46">
         <f>EXP(-LN(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)-Table7[[#This Row],[x1]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.1425033438074432</v>
+        <v>1.1424838210278869</v>
       </c>
       <c r="U46">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8+Table7[[#This Row],[x2]]*Table7[[#This Row],[gamma2]]*$N$8</f>
-        <v>55.802061533031946</v>
+        <v>55.800090268216181</v>
       </c>
       <c r="V46">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8/Table7[[#This Row],[P]]</f>
-        <v>0.76714246574685208</v>
+        <v>0.76713821867141663</v>
       </c>
     </row>
     <row r="47" spans="17:22" x14ac:dyDescent="0.3">
@@ -18487,19 +18441,19 @@
       </c>
       <c r="S47">
         <f>EXP(-LN(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)+Table7[[#This Row],[x2]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.1693646415745735</v>
+        <v>1.1693183662319231</v>
       </c>
       <c r="T47">
         <f>EXP(-LN(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)-Table7[[#This Row],[x1]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.1484583388191996</v>
+        <v>1.1484375744859716</v>
       </c>
       <c r="U47">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8+Table7[[#This Row],[x2]]*Table7[[#This Row],[gamma2]]*$N$8</f>
-        <v>56.34138361246211</v>
+        <v>56.339429818816114</v>
       </c>
       <c r="V47">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8/Table7[[#This Row],[P]]</f>
-        <v>0.77223658439834797</v>
+        <v>0.77223280394299065</v>
       </c>
     </row>
     <row r="48" spans="17:22" x14ac:dyDescent="0.3">
@@ -18512,19 +18466,19 @@
       </c>
       <c r="S48">
         <f>EXP(-LN(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)+Table7[[#This Row],[x2]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.16171683419799</v>
+        <v>1.1616723444634265</v>
       </c>
       <c r="T48">
         <f>EXP(-LN(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)-Table7[[#This Row],[x1]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.154516215208756</v>
+        <v>1.1544941596214586</v>
       </c>
       <c r="U48">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8+Table7[[#This Row],[x2]]*Table7[[#This Row],[gamma2]]*$N$8</f>
-        <v>56.876528643185864</v>
+        <v>56.87459363844215</v>
       </c>
       <c r="V48">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8/Table7[[#This Row],[P]]</f>
-        <v>0.77723967293051222</v>
+        <v>0.77723634981285705</v>
       </c>
     </row>
     <row r="49" spans="17:22" x14ac:dyDescent="0.3">
@@ -18537,19 +18491,19 @@
       </c>
       <c r="S49">
         <f>EXP(-LN(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)+Table7[[#This Row],[x2]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.1543349586349778</v>
+        <v>1.1542922099351394</v>
       </c>
       <c r="T49">
         <f>EXP(-LN(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)-Table7[[#This Row],[x1]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.1606765645461579</v>
+        <v>1.1606531670223155</v>
       </c>
       <c r="U49">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8+Table7[[#This Row],[x2]]*Table7[[#This Row],[gamma2]]*$N$8</f>
-        <v>57.407770401052183</v>
+        <v>57.405855440468194</v>
       </c>
       <c r="V49">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8/Table7[[#This Row],[P]]</f>
-        <v>0.78215755744345861</v>
+        <v>0.78215468212244121</v>
       </c>
     </row>
     <row r="50" spans="17:22" x14ac:dyDescent="0.3">
@@ -18562,19 +18516,19 @@
       </c>
       <c r="S50">
         <f>EXP(-LN(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)+Table7[[#This Row],[x2]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.1472102243259386</v>
+        <v>1.1471691729251299</v>
       </c>
       <c r="T50">
         <f>EXP(-LN(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)-Table7[[#This Row],[x1]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.1669390178309542</v>
+        <v>1.1669142266947961</v>
       </c>
       <c r="U50">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8+Table7[[#This Row],[x2]]*Table7[[#This Row],[gamma2]]*$N$8</f>
-        <v>57.935368903115453</v>
+        <v>57.933475181998446</v>
       </c>
       <c r="V50">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8/Table7[[#This Row],[P]]</f>
-        <v>0.78699565789059234</v>
+        <v>0.78699322057219989</v>
       </c>
     </row>
     <row r="51" spans="17:22" x14ac:dyDescent="0.3">
@@ -18587,19 +18541,19 @@
       </c>
       <c r="S51">
         <f>EXP(-LN(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)+Table7[[#This Row],[x2]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.1403342371082761</v>
+        <v>1.1402948400818258</v>
       </c>
       <c r="T51">
         <f>EXP(-LN(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)-Table7[[#This Row],[x1]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.1733032439858282</v>
+        <v>1.1732770065566636</v>
       </c>
       <c r="U51">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8+Table7[[#This Row],[x2]]*Table7[[#This Row],[gamma2]]*$N$8</f>
-        <v>58.459571210177614</v>
+        <v>58.457699866308737</v>
       </c>
       <c r="V51">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8/Table7[[#This Row],[P]]</f>
-        <v>0.79175902330172754</v>
+        <v>0.7917570139435981</v>
       </c>
     </row>
     <row r="52" spans="17:22" x14ac:dyDescent="0.3">
@@ -18612,19 +18566,19 @@
       </c>
       <c r="S52">
         <f>EXP(-LN(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)+Table7[[#This Row],[x2]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.133698978108967</v>
+        <v>1.1336611933167875</v>
       </c>
       <c r="T52">
         <f>EXP(-LN(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)-Table7[[#This Row],[x1]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.1797689484304981</v>
+        <v>1.1797412110106971</v>
       </c>
       <c r="U52">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8+Table7[[#This Row],[x2]]*Table7[[#This Row],[gamma2]]*$N$8</f>
-        <v>58.980612175853935</v>
+        <v>58.978764291815729</v>
       </c>
       <c r="V52">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8/Table7[[#This Row],[P]]</f>
-        <v>0.79645236342236414</v>
+        <v>0.79645077173739498</v>
       </c>
     </row>
     <row r="53" spans="17:22" x14ac:dyDescent="0.3">
@@ -18637,19 +18591,19 @@
       </c>
       <c r="S53">
         <f>EXP(-LN(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)+Table7[[#This Row],[x2]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.1272967839407859</v>
+        <v>1.1272605700011962</v>
       </c>
       <c r="T53">
         <f>EXP(-LN(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)-Table7[[#This Row],[x1]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.1863358717311121</v>
+        <v>1.1863065795937064</v>
       </c>
       <c r="U53">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8+Table7[[#This Row],[x2]]*Table7[[#This Row],[gamma2]]*$N$8</f>
-        <v>59.498715146125811</v>
+        <v>59.496891751537184</v>
       </c>
       <c r="V53">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8/Table7[[#This Row],[P]]</f>
-        <v>0.80108007718724505</v>
+        <v>0.80107889264634013</v>
       </c>
     </row>
     <row r="54" spans="17:22" x14ac:dyDescent="0.3">
@@ -18662,19 +18616,19 @@
       </c>
       <c r="S54">
         <f>EXP(-LN(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)+Table7[[#This Row],[x2]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.1211203281111111</v>
+        <v>1.1210856443749699</v>
       </c>
       <c r="T54">
         <f>EXP(-LN(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)-Table7[[#This Row],[x1]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.1930037883206779</v>
+        <v>1.1929728856965962</v>
       </c>
       <c r="U54">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8+Table7[[#This Row],[x2]]*Table7[[#This Row],[gamma2]]*$N$8</f>
-        <v>60.014092613020821</v>
+        <v>60.012294686683518</v>
       </c>
       <c r="V54">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8/Table7[[#This Row],[P]]</f>
-        <v>0.80564627839150282</v>
+        <v>0.80564549022556931</v>
       </c>
     </row>
     <row r="55" spans="17:22" x14ac:dyDescent="0.3">
@@ -18687,19 +18641,19 @@
       </c>
       <c r="S55">
         <f>EXP(-LN(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)+Table7[[#This Row],[x2]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.1151626035593196</v>
+        <v>1.1151294100845139</v>
       </c>
       <c r="T55">
         <f>EXP(-LN(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)-Table7[[#This Row],[x1]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.1997725052863759</v>
+        <v>1.199739935351321</v>
       </c>
       <c r="U55">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8+Table7[[#This Row],[x2]]*Table7[[#This Row],[gamma2]]*$N$8</f>
-        <v>60.526946825765208</v>
+        <v>60.525175297725823</v>
       </c>
       <c r="V55">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8/Table7[[#This Row],[P]]</f>
-        <v>0.81015481887583751</v>
+        <v>0.81015441607712457</v>
       </c>
     </row>
     <row r="56" spans="17:22" x14ac:dyDescent="0.3">
@@ -18712,19 +18666,19 @@
       </c>
       <c r="S56">
         <f>EXP(-LN(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)+Table7[[#This Row],[x2]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.1094169062452419</v>
+        <v>1.1093851637715602</v>
       </c>
       <c r="T56">
         <f>EXP(-LN(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)-Table7[[#This Row],[x1]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.2066418612198631</v>
+        <v>1.2066075660808442</v>
       </c>
       <c r="U56">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8+Table7[[#This Row],[x2]]*Table7[[#This Row],[gamma2]]*$N$8</f>
-        <v>61.037470362484747</v>
+        <v>61.035726116016065</v>
       </c>
       <c r="V56">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8/Table7[[#This Row],[P]]</f>
-        <v>0.81460930950199817</v>
+        <v>0.81460928082485817</v>
       </c>
     </row>
     <row r="57" spans="17:22" x14ac:dyDescent="0.3">
@@ -18737,19 +18691,19 @@
       </c>
       <c r="S57">
         <f>EXP(-LN(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)+Table7[[#This Row],[x2]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.1038768197170841</v>
+        <v>1.1038464896415037</v>
       </c>
       <c r="T57">
         <f>EXP(-LN(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)-Table7[[#This Row],[x1]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.2136117251269516</v>
+        <v>1.2135756458084834</v>
       </c>
       <c r="U57">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8+Table7[[#This Row],[x2]]*Table7[[#This Row],[gamma2]]*$N$8</f>
-        <v>61.545846665285382</v>
+        <v>61.544130538790682</v>
       </c>
       <c r="V57">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8/Table7[[#This Row],[P]]</f>
-        <v>0.81901313916031315</v>
+        <v>0.81901347312145256</v>
       </c>
     </row>
     <row r="58" spans="17:22" x14ac:dyDescent="0.3">
@@ -18762,19 +18716,19 @@
       </c>
       <c r="S58">
         <f>EXP(-LN(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)+Table7[[#This Row],[x2]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.0985362005926498</v>
+        <v>1.0985072449450601</v>
       </c>
       <c r="T58">
         <f>EXP(-LN(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)-Table7[[#This Row],[x1]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.2206819953932595</v>
+        <v>1.2206440718232316</v>
       </c>
       <c r="U58">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8+Table7[[#This Row],[x2]]*Table7[[#This Row],[gamma2]]*$N$8</f>
-        <v>62.052250541320376</v>
+        <v>62.050563330164323</v>
       </c>
       <c r="V58">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8/Table7[[#This Row],[P]]</f>
-        <v>0.82336949202127119</v>
+        <v>0.82337017689955283</v>
       </c>
     </row>
     <row r="59" spans="17:22" x14ac:dyDescent="0.3">
@@ -18787,19 +18741,19 @@
       </c>
       <c r="S59">
         <f>EXP(-LN(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)+Table7[[#This Row],[x2]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.0933891648926644</v>
+        <v>1.0933615463120452</v>
       </c>
       <c r="T59">
         <f>EXP(-LN(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)-Table7[[#This Row],[x1]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.2278525988026707</v>
+        <v>1.2278127697978978</v>
       </c>
       <c r="U59">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8+Table7[[#This Row],[x2]]*Table7[[#This Row],[gamma2]]*$N$8</f>
-        <v>62.556848632246215</v>
+        <v>62.555191090516011</v>
       </c>
       <c r="V59">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8/Table7[[#This Row],[P]]</f>
-        <v>0.82768136321746166</v>
+        <v>0.8276823870533051</v>
       </c>
     </row>
     <row r="60" spans="17:22" x14ac:dyDescent="0.3">
@@ -18812,19 +18766,19 @@
       </c>
       <c r="S60">
         <f>EXP(-LN(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)+Table7[[#This Row],[x2]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.0884300751695841</v>
+        <v>1.0884037568806457</v>
       </c>
       <c r="T60">
         <f>EXP(-LN(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)-Table7[[#This Row],[x1]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.2351234896056289</v>
+        <v>1.2350816928570885</v>
       </c>
       <c r="U60">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8+Table7[[#This Row],[x2]]*Table7[[#This Row],[gamma2]]*$N$8</f>
-        <v>63.059799854282986</v>
+        <v>63.058172696482785</v>
       </c>
       <c r="V60">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8/Table7[[#This Row],[P]]</f>
-        <v>0.83195157311994339</v>
+        <v>0.83195292371436924</v>
       </c>
     </row>
     <row r="61" spans="17:22" x14ac:dyDescent="0.3">
@@ -18837,19 +18791,19 @@
       </c>
       <c r="S61">
         <f>EXP(-LN(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)+Table7[[#This Row],[x2]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.0836535283794426</v>
+        <v>1.0836284741697451</v>
       </c>
       <c r="T61">
         <f>EXP(-LN(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)-Table7[[#This Row],[x1]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.2424946486344919</v>
+        <v>1.242450820692256</v>
       </c>
       <c r="U61">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8+Table7[[#This Row],[x2]]*Table7[[#This Row],[gamma2]]*$N$8</f>
-        <v>63.561255810922695</v>
+        <v>63.55965971360483</v>
       </c>
       <c r="V61">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8/Table7[[#This Row],[P]]</f>
-        <v>0.83618278035380855</v>
+        <v>0.83618444526716362</v>
       </c>
     </row>
     <row r="62" spans="17:22" x14ac:dyDescent="0.3">
@@ -18862,19 +18816,19 @@
       </c>
       <c r="S62">
         <f>EXP(-LN(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)+Table7[[#This Row],[x2]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.0790543444481586</v>
+        <v>1.0790305186457074</v>
       </c>
       <c r="T62">
         <f>EXP(-LN(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)-Table7[[#This Row],[x1]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.2499660824633358</v>
+        <v>1.2499201587212032</v>
       </c>
       <c r="U62">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8+Table7[[#This Row],[x2]]*Table7[[#This Row],[gamma2]]*$N$8</f>
-        <v>64.061361180173137</v>
+        <v>64.059796783509114</v>
       </c>
       <c r="V62">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8/Table7[[#This Row],[P]]</f>
-        <v>0.84037749368093206</v>
+        <v>0.84037946023132559</v>
       </c>
     </row>
     <row r="63" spans="17:22" x14ac:dyDescent="0.3">
@@ -18887,19 +18841,19 @@
       </c>
       <c r="S63">
         <f>EXP(-LN(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)+Table7[[#This Row],[x2]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.0746275554872491</v>
+        <v>1.0746049229385792</v>
       </c>
       <c r="T63">
         <f>EXP(-LN(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)-Table7[[#This Row],[x1]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.2575378226097791</v>
+        <v>1.2574897372896097</v>
       </c>
       <c r="U63">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8+Table7[[#This Row],[x2]]*Table7[[#This Row],[gamma2]]*$N$8</f>
-        <v>64.560254078080817</v>
+        <v>64.558721987375108</v>
       </c>
       <c r="V63">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8/Table7[[#This Row],[P]]</f>
-        <v>0.84453808286326482</v>
+        <v>0.84454033812474649</v>
       </c>
     </row>
     <row r="64" spans="17:22" x14ac:dyDescent="0.3">
@@ -18912,19 +18866,19 @@
       </c>
       <c r="S64">
         <f>EXP(-LN(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)+Table7[[#This Row],[x2]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.0703683956171626</v>
+        <v>1.0703469216659043</v>
       </c>
       <c r="T64">
         <f>EXP(-LN(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)-Table7[[#This Row],[x1]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.2652099247765254</v>
+        <v>1.2651596109122862</v>
       </c>
       <c r="U64">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8+Table7[[#This Row],[x2]]*Table7[[#This Row],[gamma2]]*$N$8</f>
-        <v>65.058066400144625</v>
+        <v>65.056567187294249</v>
       </c>
       <c r="V64">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8/Table7[[#This Row],[P]]</f>
-        <v>0.84866678860726408</v>
+        <v>0.84866931940776336</v>
       </c>
     </row>
     <row r="65" spans="17:22" x14ac:dyDescent="0.3">
@@ -18937,19 +18891,19 @@
       </c>
       <c r="S65">
         <f>EXP(-LN(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)+Table7[[#This Row],[x2]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.0662722913594329</v>
+        <v>1.0662519418253613</v>
       </c>
       <c r="T65">
         <f>EXP(-LN(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)-Table7[[#This Row],[x1]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.2729824681304918</v>
+        <v>1.2729298575520145</v>
       </c>
       <c r="U65">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8+Table7[[#This Row],[x2]]*Table7[[#This Row],[gamma2]]*$N$8</f>
-        <v>65.554924142111474</v>
+        <v>65.553458347013887</v>
       </c>
       <c r="V65">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8/Table7[[#This Row],[P]]</f>
-        <v>0.85276573167887049</v>
+        <v>0.85276852459792329</v>
       </c>
     </row>
     <row r="66" spans="17:22" x14ac:dyDescent="0.3">
@@ -18962,19 +18916,19 @@
       </c>
       <c r="S66">
         <f>EXP(-LN(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)+Table7[[#This Row],[x2]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.0623348525616205</v>
+        <v>1.0623155937201871</v>
       </c>
       <c r="T66">
         <f>EXP(-LN(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)-Table7[[#This Row],[x1]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.2808555546174982</v>
+        <v>1.2808005779339544</v>
       </c>
       <c r="U66">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8+Table7[[#This Row],[x2]]*Table7[[#This Row],[gamma2]]*$N$8</f>
-        <v>66.050947701533602</v>
+        <v>66.049515833445867</v>
       </c>
       <c r="V66">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8/Table7[[#This Row],[P]]</f>
-        <v>0.85683692126865385</v>
+        <v>0.85683996263492856</v>
       </c>
     </row>
     <row r="67" spans="17:22" x14ac:dyDescent="0.3">
@@ -18987,19 +18941,19 @@
       </c>
       <c r="S67">
         <f>EXP(-LN(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)+Table7[[#This Row],[x2]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.0585518638215541</v>
+        <v>1.0585336623838935</v>
       </c>
       <c r="T67">
         <f>EXP(-LN(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)-Table7[[#This Row],[x1]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.2888293083106308</v>
+        <v>1.2887718948937252</v>
       </c>
       <c r="U67">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8+Table7[[#This Row],[x2]]*Table7[[#This Row],[gamma2]]*$N$8</f>
-        <v>66.546252161366013</v>
+        <v>66.54485470021757</v>
       </c>
       <c r="V67">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8/Table7[[#This Row],[P]]</f>
-        <v>0.86088226267812873</v>
+        <v>0.8608855385667713</v>
       </c>
     </row>
     <row r="68" spans="17:22" x14ac:dyDescent="0.3">
@@ -19012,19 +18966,19 @@
       </c>
       <c r="S68">
         <f>EXP(-LN(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)+Table7[[#This Row],[x2]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.0549192763797248</v>
+        <v>1.0549020994731313</v>
       </c>
       <c r="T68">
         <f>EXP(-LN(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)-Table7[[#This Row],[x1]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.2969038747904984</v>
+        <v>1.2968439527573872</v>
       </c>
       <c r="U68">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8+Table7[[#This Row],[x2]]*Table7[[#This Row],[gamma2]]*$N$8</f>
-        <v>67.040947556787671</v>
+        <v>67.039584954449353</v>
       </c>
       <c r="V68">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8/Table7[[#This Row],[P]]</f>
-        <v>0.86490356439068272</v>
+        <v>0.86490706062049127</v>
       </c>
     </row>
     <row r="69" spans="17:22" x14ac:dyDescent="0.3">
@@ -19037,19 +18991,19 @@
       </c>
       <c r="S69">
         <f>EXP(-LN(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)+Table7[[#This Row],[x2]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.0514332004508602</v>
+        <v>1.0514170155997273</v>
       </c>
       <c r="T69">
         <f>EXP(-LN(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)-Table7[[#This Row],[x1]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.3050794205557179</v>
+        <v>1.305016916751649</v>
       </c>
       <c r="U69">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8+Table7[[#This Row],[x2]]*Table7[[#This Row],[gamma2]]*$N$8</f>
-        <v>67.535139126345328</v>
+        <v>67.533811807856651</v>
       </c>
       <c r="V69">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8/Table7[[#This Row],[P]]</f>
-        <v>0.86890254458386684</v>
+        <v>0.86890624671430794</v>
       </c>
     </row>
     <row r="70" spans="17:22" x14ac:dyDescent="0.3">
@@ -19062,19 +19016,19 @@
       </c>
       <c r="S70">
         <f>EXP(-LN(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)+Table7[[#This Row],[x2]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.0480898979676967</v>
+        <v>1.048074673074914</v>
       </c>
       <c r="T70">
         <f>EXP(-LN(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)-Table7[[#This Row],[x1]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.3133561324620469</v>
+        <v>1.3132909724427293</v>
       </c>
       <c r="U70">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8+Table7[[#This Row],[x2]]*Table7[[#This Row],[gamma2]]*$N$8</f>
-        <v>68.02892754843775</v>
+        <v>68.027635913195212</v>
       </c>
       <c r="V70">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8/Table7[[#This Row],[P]]</f>
-        <v>0.87288083713391407</v>
+        <v>0.87288473046199</v>
       </c>
     </row>
     <row r="71" spans="17:22" x14ac:dyDescent="0.3">
@@ -19087,19 +19041,19 @@
       </c>
       <c r="S71">
         <f>EXP(-LN(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)+Table7[[#This Row],[x2]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.0448857757118273</v>
+        <v>1.0448714790406211</v>
       </c>
       <c r="T71">
         <f>EXP(-LN(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)-Table7[[#This Row],[x1]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.321734217188697</v>
+        <v>1.3216663252023995</v>
       </c>
       <c r="U71">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8+Table7[[#This Row],[x2]]*Table7[[#This Row],[gamma2]]*$N$8</f>
-        <v>68.522409164086753</v>
+        <v>68.521153586994743</v>
       </c>
       <c r="V71">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8/Table7[[#This Row],[P]]</f>
-        <v>0.87683999715812366</v>
+        <v>0.87684406671510007</v>
       </c>
     </row>
     <row r="72" spans="17:22" x14ac:dyDescent="0.3">
@@ -19112,19 +19066,19 @@
       </c>
       <c r="S72">
         <f>EXP(-LN(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)+Table7[[#This Row],[x2]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.0418173788081979</v>
+        <v>1.0418039789644138</v>
       </c>
       <c r="T72">
         <f>EXP(-LN(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)-Table7[[#This Row],[x1]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.330213900730431</v>
+        <v>1.3301431996998065</v>
       </c>
       <c r="U72">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8+Table7[[#This Row],[x2]]*Table7[[#This Row],[gamma2]]*$N$8</f>
-        <v>69.015676186872412</v>
+        <v>69.014457019459414</v>
       </c>
       <c r="V72">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8/Table7[[#This Row],[P]]</f>
-        <v>0.88078150613613659</v>
+        <v>0.88078573668413651</v>
       </c>
     </row>
     <row r="73" spans="17:22" x14ac:dyDescent="0.3">
@@ -19137,19 +19091,19 @@
       </c>
       <c r="S73">
         <f>EXP(-LN(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)+Table7[[#This Row],[x2]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.0388813845614189</v>
+        <v>1.0388688504762282</v>
       </c>
       <c r="T73">
         <f>EXP(-LN(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)-Table7[[#This Row],[x1]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.3387954279141361</v>
+        <v>1.3387218394177811</v>
       </c>
       <c r="U73">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8+Table7[[#This Row],[x2]]*Table7[[#This Row],[gamma2]]*$N$8</f>
-        <v>69.508816900849112</v>
+        <v>69.50763447235046</v>
       </c>
       <c r="V73">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8/Table7[[#This Row],[P]]</f>
-        <v>0.88470677664701658</v>
+        <v>0.88471115267548661</v>
       </c>
     </row>
     <row r="74" spans="17:22" x14ac:dyDescent="0.3">
@@ -19162,19 +19116,19 @@
       </c>
       <c r="S74">
         <f>EXP(-LN(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)+Table7[[#This Row],[x2]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.036074596613513</v>
+        <v>1.036062897526542</v>
       </c>
       <c r="T74">
         <f>EXP(-LN(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)-Table7[[#This Row],[x1]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.3474790619386352</v>
+        <v>1.3474025061923791</v>
       </c>
       <c r="U74">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8+Table7[[#This Row],[x2]]*Table7[[#This Row],[gamma2]]*$N$8</f>
-        <v>70.001915847200493</v>
+        <v>70.000770465610401</v>
       </c>
       <c r="V74">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8/Table7[[#This Row],[P]]</f>
-        <v>0.88861715675540787</v>
+        <v>0.88862166247746299</v>
       </c>
     </row>
     <row r="75" spans="17:22" x14ac:dyDescent="0.3">
@@ -19187,19 +19141,19 @@
       </c>
       <c r="S75">
         <f>EXP(-LN(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)+Table7[[#This Row],[x2]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.0333939394040816</v>
+        <v>1.0333830448469441</v>
       </c>
       <c r="T75">
         <f>EXP(-LN(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)-Table7[[#This Row],[x1]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.3562650839365824</v>
+        <v>1.3561854797745101</v>
       </c>
       <c r="U75">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8+Table7[[#This Row],[x2]]*Table7[[#This Row],[gamma2]]*$N$8</f>
-        <v>70.495054000339579</v>
+        <v>70.493945953433467</v>
       </c>
       <c r="V75">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8/Table7[[#This Row],[P]]</f>
-        <v>0.89251393407679691</v>
+        <v>0.8925185534254465</v>
       </c>
     </row>
     <row r="76" spans="17:22" x14ac:dyDescent="0.3">
@@ -19212,19 +19166,19 @@
       </c>
       <c r="S76">
         <f>EXP(-LN(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)+Table7[[#This Row],[x2]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.0308364529151226</v>
+        <v>1.030826332695354</v>
       </c>
       <c r="T76">
         <f>EXP(-LN(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)-Table7[[#This Row],[x1]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.3651537925573392</v>
+        <v>1.3650710574125444</v>
       </c>
       <c r="U76">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8+Table7[[#This Row],[x2]]*Table7[[#This Row],[gamma2]]*$N$8</f>
-        <v>70.98830893411035</v>
+        <v>70.987238490439879</v>
       </c>
       <c r="V76">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8/Table7[[#This Row],[P]]</f>
-        <v>0.89639833954900439</v>
+        <v>0.89640305617326455</v>
       </c>
     </row>
     <row r="77" spans="17:22" x14ac:dyDescent="0.3">
@@ -19237,19 +19191,19 @@
       </c>
       <c r="S77">
         <f>EXP(-LN(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)+Table7[[#This Row],[x2]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.0283992876839048</v>
+        <v>1.0283899118692799</v>
       </c>
       <c r="T77">
         <f>EXP(-LN(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)-Table7[[#This Row],[x1]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.3741455035698007</v>
+        <v>1.3740595534548763</v>
       </c>
       <c r="U77">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8+Table7[[#This Row],[x2]]*Table7[[#This Row],[gamma2]]*$N$8</f>
-        <v>71.481754978702838</v>
+        <v>71.480722388564772</v>
       </c>
       <c r="V77">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8/Table7[[#This Row],[P]]</f>
-        <v>0.90027155093445488</v>
+        <v>0.90027634819534919</v>
       </c>
     </row>
     <row r="78" spans="17:22" x14ac:dyDescent="0.3">
@@ -19262,19 +19216,19 @@
       </c>
       <c r="S78">
         <f>EXP(-LN(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)+Table7[[#This Row],[x2]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.026079700068375</v>
+        <v>1.0260710389716039</v>
       </c>
       <c r="T78">
         <f>EXP(-LN(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)-Table7[[#This Row],[x1]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.3832405494841982</v>
+        <v>1.3831512989714554</v>
       </c>
       <c r="U78">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8+Table7[[#This Row],[x2]]*Table7[[#This Row],[gamma2]]*$N$8</f>
-        <v>71.975463368850995</v>
+        <v>71.974468865231941</v>
       </c>
       <c r="V78">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8/Table7[[#This Row],[P]]</f>
-        <v>0.90413469607545927</v>
+        <v>0.9041395570419104</v>
       </c>
     </row>
     <row r="79" spans="17:22" x14ac:dyDescent="0.3">
@@ -19287,19 +19241,19 @@
       </c>
       <c r="S79">
         <f>EXP(-LN(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)+Table7[[#This Row],[x2]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.0238750477505889</v>
+        <v>1.0238670719143768</v>
       </c>
       <c r="T79">
         <f>EXP(-LN(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)-Table7[[#This Row],[x1]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.3924392791919571</v>
+        <v>1.3923466413933776</v>
       </c>
       <c r="U79">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8+Table7[[#This Row],[x2]]*Table7[[#This Row],[gamma2]]*$N$8</f>
-        <v>72.469502383844926</v>
+        <v>72.468546183343179</v>
       </c>
       <c r="V79">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8/Table7[[#This Row],[P]]</f>
-        <v>0.90798885592267364</v>
+        <v>0.90799376336728788</v>
       </c>
     </row>
     <row r="80" spans="17:22" x14ac:dyDescent="0.3">
@@ -19312,19 +19266,19 @@
       </c>
       <c r="S80">
         <f>EXP(-LN(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)+Table7[[#This Row],[x2]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.0217827854645751</v>
+        <v>1.0217754656470381</v>
       </c>
       <c r="T80">
         <f>EXP(-LN(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)-Table7[[#This Row],[x1]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.401742057622734</v>
+        <v>1.4016459441696578</v>
       </c>
       <c r="U80">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8+Table7[[#This Row],[x2]]*Table7[[#This Row],[gamma2]]*$N$8</f>
-        <v>72.963937479852333</v>
+        <v>72.963019783578474</v>
       </c>
       <c r="V80">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8/Table7[[#This Row],[P]]</f>
-        <v>0.91183506735504805</v>
+        <v>0.91184000374979457</v>
       </c>
     </row>
     <row r="81" spans="17:22" x14ac:dyDescent="0.3">
@@ -19337,19 +19291,19 @@
       </c>
       <c r="S81">
         <f>EXP(-LN(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)+Table7[[#This Row],[x2]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.0198004609359224</v>
+        <v>1.0197937680963454</v>
       </c>
       <c r="T81">
         <f>EXP(-LN(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)-Table7[[#This Row],[x1]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.4111492654178279</v>
+        <v>1.4110495864403676</v>
       </c>
       <c r="U81">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8+Table7[[#This Row],[x2]]*Table7[[#This Row],[gamma2]]*$N$8</f>
-        <v>73.458831415011517</v>
+        <v>73.457952409469073</v>
       </c>
       <c r="V81">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8/Table7[[#This Row],[P]]</f>
-        <v>0.91567432580790875</v>
+        <v>0.91567927331969334</v>
       </c>
     </row>
     <row r="82" spans="17:22" x14ac:dyDescent="0.3">
@@ -19362,19 +19316,19 @@
       </c>
       <c r="S82">
         <f>EXP(-LN(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)+Table7[[#This Row],[x2]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.0179257110211697</v>
+        <v>1.0179196163060993</v>
       </c>
       <c r="T82">
         <f>EXP(-LN(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)-Table7[[#This Row],[x1]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.4206612986191709</v>
+        <v>1.4205579627253608</v>
       </c>
       <c r="U82">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8+Table7[[#This Row],[x2]]*Table7[[#This Row],[gamma2]]*$N$8</f>
-        <v>73.954244367727142</v>
+        <v>73.953404225674745</v>
       </c>
       <c r="V82">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8/Table7[[#This Row],[P]]</f>
-        <v>0.9195075877243245</v>
+        <v>0.91951252821046037</v>
       </c>
     </row>
     <row r="83" spans="17:22" x14ac:dyDescent="0.3">
@@ -19387,19 +19341,19 @@
       </c>
       <c r="S83">
         <f>EXP(-LN(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)+Table7[[#This Row],[x2]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.0161562580358405</v>
+        <v>1.0161507327654988</v>
       </c>
       <c r="T83">
         <f>EXP(-LN(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)-Table7[[#This Row],[x1]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.4302785683731805</v>
+        <v>1.4301714826278547</v>
       </c>
       <c r="U83">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8+Table7[[#This Row],[x2]]*Table7[[#This Row],[gamma2]]*$N$8</f>
-        <v>74.450234048571417</v>
+        <v>74.449432929867612</v>
       </c>
       <c r="V83">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8/Table7[[#This Row],[P]]</f>
-        <v>0.92333577284355717</v>
+        <v>0.92334068784713219</v>
       </c>
     </row>
     <row r="84" spans="17:22" x14ac:dyDescent="0.3">
@@ -19412,19 +19366,19 @@
       </c>
       <c r="S84">
         <f>EXP(-LN(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)+Table7[[#This Row],[x2]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.0144899062606529</v>
+        <v>1.0144849219156653</v>
       </c>
       <c r="T84">
         <f>EXP(-LN(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)-Table7[[#This Row],[x1]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.4400015006487725</v>
+        <v>1.4398905705521712</v>
       </c>
       <c r="U84">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8+Table7[[#This Row],[x2]]*Table7[[#This Row],[gamma2]]*$N$8</f>
-        <v>74.946855806167335</v>
+        <v>74.946093858599525</v>
       </c>
       <c r="V84">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8/Table7[[#This Row],[P]]</f>
-        <v>0.9271597663391864</v>
+        <v>0.92716463708432661</v>
       </c>
     </row>
     <row r="85" spans="17:22" x14ac:dyDescent="0.3">
@@ -19437,19 +19391,19 @@
       </c>
       <c r="S85">
         <f>EXP(-LN(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)+Table7[[#This Row],[x2]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.0129245386160872</v>
+        <v>1.0129200668245104</v>
       </c>
       <c r="T85">
         <f>EXP(-LN(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)-Table7[[#This Row],[x1]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.4498305359688766</v>
+        <v>1.4497156654349816</v>
       </c>
       <c r="U85">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8+Table7[[#This Row],[x2]]*Table7[[#This Row],[gamma2]]*$N$8</f>
-        <v>75.444162727405569</v>
+        <v>75.44344008750403</v>
       </c>
       <c r="V85">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8/Table7[[#This Row],[P]]</f>
-        <v>0.93098042081840038</v>
+        <v>0.93098522820543073</v>
       </c>
     </row>
     <row r="86" spans="17:22" x14ac:dyDescent="0.3">
@@ -19462,19 +19416,19 @@
       </c>
       <c r="S86">
         <f>EXP(-LN(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)+Table7[[#This Row],[x2]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.0114581134960967</v>
+        <v>1.0114541260207419</v>
       </c>
       <c r="T86">
         <f>EXP(-LN(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)-Table7[[#This Row],[x1]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.459766129154844</v>
+        <v>1.4596472204894391</v>
       </c>
       <c r="U86">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8+Table7[[#This Row],[x2]]*Table7[[#This Row],[gamma2]]*$N$8</f>
-        <v>75.942205732323771</v>
+        <v>75.941522526162132</v>
       </c>
       <c r="V86">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8/Table7[[#This Row],[P]]</f>
-        <v>0.93479855819295798</v>
+        <v>0.9348032827934587</v>
       </c>
     </row>
     <row r="87" spans="17:22" x14ac:dyDescent="0.3">
@@ -19487,19 +19441,19 @@
       </c>
       <c r="S87">
         <f>EXP(-LN(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)+Table7[[#This Row],[x2]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.0100886617523175</v>
+        <v>1.010085130478352</v>
       </c>
       <c r="T87">
         <f>EXP(-LN(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)-Table7[[#This Row],[x1]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.4698087490831466</v>
+        <v>1.4696857029616006</v>
       </c>
       <c r="U87">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8+Table7[[#This Row],[x2]]*Table7[[#This Row],[gamma2]]*$N$8</f>
-        <v>76.441033663956517</v>
+        <v>76.440390007939598</v>
       </c>
       <c r="V87">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8/Table7[[#This Row],[P]]</f>
-        <v>0.93861497143143036</v>
+        <v>0.9386195934831898</v>
       </c>
     </row>
     <row r="88" spans="17:22" x14ac:dyDescent="0.3">
@@ -19512,19 +19466,19 @@
       </c>
       <c r="S88">
         <f>EXP(-LN(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)+Table7[[#This Row],[x2]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.0088142838206442</v>
+        <v>1.0088111807434679</v>
       </c>
       <c r="T88">
         <f>EXP(-LN(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)-Table7[[#This Row],[x1]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.4799588784538169</v>
+        <v>1.4798315938985998</v>
       </c>
       <c r="U88">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8+Table7[[#This Row],[x2]]*Table7[[#This Row],[gamma2]]*$N$8</f>
-        <v>76.940693373443466</v>
+        <v>76.940089375083573</v>
       </c>
       <c r="V88">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8/Table7[[#This Row],[P]]</f>
-        <v>0.94243042620152429</v>
+        <v>0.94243492560338593</v>
       </c>
     </row>
     <row r="89" spans="17:22" x14ac:dyDescent="0.3">
@@ -19537,19 +19491,19 @@
       </c>
       <c r="S89">
         <f>EXP(-LN(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)+Table7[[#This Row],[x2]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.0076331469825459</v>
+        <v>1.0076304441959305</v>
       </c>
       <c r="T89">
         <f>EXP(-LN(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)-Table7[[#This Row],[x1]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.4902170135701078</v>
+        <v>1.4900853879280189</v>
       </c>
       <c r="U89">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8+Table7[[#This Row],[x2]]*Table7[[#This Row],[gamma2]]*$N$8</f>
-        <v>77.441229800665738</v>
+        <v>77.440665559348673</v>
       </c>
       <c r="V89">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8/Table7[[#This Row],[P]]</f>
-        <v>0.94624566241055186</v>
+        <v>0.94625001871715719</v>
       </c>
     </row>
     <row r="90" spans="17:22" x14ac:dyDescent="0.3">
@@ -19562,19 +19516,19 @@
       </c>
       <c r="S90">
         <f>EXP(-LN(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)+Table7[[#This Row],[x2]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.0065434827539441</v>
+        <v>1.0065411524384256</v>
       </c>
       <c r="T90">
         <f>EXP(-LN(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)-Table7[[#This Row],[x1]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.5005836641288623</v>
+        <v>1.5004475930479841</v>
       </c>
       <c r="U90">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8+Table7[[#This Row],[x2]]*Table7[[#This Row],[gamma2]]*$N$8</f>
-        <v>77.942686050663156</v>
+        <v>77.942161658404629</v>
       </c>
       <c r="V90">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8/Table7[[#This Row],[P]]</f>
-        <v>0.95006139565145131</v>
+        <v>0.95006558806787267</v>
       </c>
     </row>
     <row r="91" spans="17:22" x14ac:dyDescent="0.3">
@@ -19587,19 +19541,19 @@
       </c>
       <c r="S91">
         <f>EXP(-LN(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)+Table7[[#This Row],[x2]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.0055435843948999</v>
+        <v>1.0055415988064167</v>
       </c>
       <c r="T91">
         <f>EXP(-LN(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)-Table7[[#This Row],[x1]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.5110593530211225</v>
+        <v>1.5109187304274918</v>
       </c>
       <c r="U91">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8+Table7[[#This Row],[x2]]*Table7[[#This Row],[gamma2]]*$N$8</f>
-        <v>78.445103466069</v>
+        <v>78.444619008262379</v>
       </c>
       <c r="V91">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8/Table7[[#This Row],[P]]</f>
-        <v>0.95387831856115002</v>
+        <v>0.9538823259374194</v>
       </c>
     </row>
     <row r="92" spans="17:22" x14ac:dyDescent="0.3">
@@ -19612,19 +19566,19 @@
       </c>
       <c r="S92">
         <f>EXP(-LN(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)+Table7[[#This Row],[x2]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.004631804533769</v>
+        <v>1.004630135992534</v>
       </c>
       <c r="T92">
         <f>EXP(-LN(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)-Table7[[#This Row],[x1]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.5216446161425357</v>
+        <v>1.5214993342165313</v>
       </c>
       <c r="U92">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8+Table7[[#This Row],[x2]]*Table7[[#This Row],[gamma2]]*$N$8</f>
-        <v>78.948521695784379</v>
+        <v>78.948077251941072</v>
       </c>
       <c r="V92">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8/Table7[[#This Row],[P]]</f>
-        <v>0.95769710209752479</v>
+        <v>0.9577009029230491</v>
       </c>
     </row>
     <row r="93" spans="17:22" x14ac:dyDescent="0.3">
@@ -19637,19 +19591,19 @@
       </c>
       <c r="S93">
         <f>EXP(-LN(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)+Table7[[#This Row],[x2]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.0038065528998406</v>
+        <v>1.003805173779444</v>
       </c>
       <c r="T93">
         <f>EXP(-LN(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)-Table7[[#This Row],[x1]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.5323400022131224</v>
+        <v>1.5321899513655677</v>
       </c>
       <c r="U93">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8+Table7[[#This Row],[x2]]*Table7[[#This Row],[gamma2]]*$N$8</f>
-        <v>79.452978760100535</v>
+        <v>79.452574404583331</v>
       </c>
       <c r="V93">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8/Table7[[#This Row],[P]]</f>
-        <v>0.96151839674069917</v>
+        <v>0.9615219691385688</v>
       </c>
     </row>
     <row r="94" spans="17:22" x14ac:dyDescent="0.3">
@@ -19662,19 +19616,19 @@
       </c>
       <c r="S94">
         <f>EXP(-LN(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)+Table7[[#This Row],[x2]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.0030662941588404</v>
+        <v>1.0030651768755683</v>
       </c>
       <c r="T94">
         <f>EXP(-LN(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)-Table7[[#This Row],[x1]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.5431460726060047</v>
+        <v>1.5429911414539834</v>
       </c>
       <c r="U94">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8+Table7[[#This Row],[x2]]*Table7[[#This Row],[gamma2]]*$N$8</f>
-        <v>79.958511112464151</v>
+        <v>79.958146915214968</v>
       </c>
       <c r="V94">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8/Table7[[#This Row],[P]]</f>
-        <v>0.96534283362397788</v>
+        <v>0.96534615534515889</v>
       </c>
     </row>
     <row r="95" spans="17:22" x14ac:dyDescent="0.3">
@@ -19687,19 +19641,19 @@
       </c>
       <c r="S95">
         <f>EXP(-LN(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)+Table7[[#This Row],[x2]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.0024095458459914</v>
+        <v>1.0024086628483568</v>
       </c>
       <c r="T95">
         <f>EXP(-LN(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)-Table7[[#This Row],[x1]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.554063401184715</v>
+        <v>1.5539034765270983</v>
       </c>
       <c r="U95">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8+Table7[[#This Row],[x2]]*Table7[[#This Row],[gamma2]]*$N$8</f>
-        <v>80.465153698069514</v>
+        <v>80.464829725331754</v>
       </c>
       <c r="V95">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8/Table7[[#This Row],[P]]</f>
-        <v>0.96917102559928869</v>
+        <v>0.96917407401670363</v>
       </c>
     </row>
     <row r="96" spans="17:22" x14ac:dyDescent="0.3">
@@ -19712,19 +19666,19 @@
       </c>
       <c r="S96">
         <f>EXP(-LN(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)+Table7[[#This Row],[x2]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.0018348763916436</v>
+        <v>1.0018342001501197</v>
       </c>
       <c r="T96">
         <f>EXP(-LN(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)-Table7[[#This Row],[x1]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.5650925741487198</v>
+        <v>1.5649275409414007</v>
       </c>
       <c r="U96">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8+Table7[[#This Row],[x2]]*Table7[[#This Row],[gamma2]]*$N$8</f>
-        <v>80.972940009449303</v>
+        <v>80.972656324486081</v>
       </c>
       <c r="V96">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8/Table7[[#This Row],[P]]</f>
-        <v>0.97300356824163536</v>
+        <v>0.97300632034412715</v>
       </c>
     </row>
     <row r="97" spans="17:22" x14ac:dyDescent="0.3">
@@ -19737,19 +19691,19 @@
       </c>
       <c r="S97">
         <f>EXP(-LN(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)+Table7[[#This Row],[x2]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.001340903234758</v>
+        <v>1.0013404062317071</v>
       </c>
       <c r="T97">
         <f>EXP(-LN(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)-Table7[[#This Row],[x1]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.5762341898868073</v>
+        <v>1.5760639312176421</v>
       </c>
       <c r="U97">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8+Table7[[#This Row],[x2]]*Table7[[#This Row],[gamma2]]*$N$8</f>
-        <v>81.481902139226023</v>
+        <v>81.481658803034804</v>
       </c>
       <c r="V97">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8/Table7[[#This Row],[P]]</f>
-        <v>0.97684104079671141</v>
+        <v>0.97684347318288933</v>
       </c>
     </row>
     <row r="98" spans="17:22" x14ac:dyDescent="0.3">
@@ -19762,19 +19716,19 @@
       </c>
       <c r="S98">
         <f>EXP(-LN(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)+Table7[[#This Row],[x2]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.0009262910198107</v>
+        <v>1.0009259457396009</v>
       </c>
       <c r="T98">
         <f>EXP(-LN(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)-Table7[[#This Row],[x1]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.5874888588380187</v>
+        <v>1.5873132559014707</v>
       </c>
       <c r="U98">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8+Table7[[#This Row],[x2]]*Table7[[#This Row],[gamma2]]*$N$8</f>
-        <v>81.992070830176104</v>
+        <v>81.991867902200624</v>
       </c>
       <c r="V98">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8/Table7[[#This Row],[P]]</f>
-        <v>0.98068400707551262</v>
+        <v>0.98068609594747869</v>
       </c>
     </row>
     <row r="99" spans="17:22" x14ac:dyDescent="0.3">
@@ -19787,19 +19741,19 @@
       </c>
       <c r="S99">
         <f>EXP(-LN(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)+Table7[[#This Row],[x2]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.0005897498729246</v>
+        <v>1.0005895287922264</v>
       </c>
       <c r="T99">
         <f>EXP(-LN(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)-Table7[[#This Row],[x1]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.5988572033598014</v>
+        <v>1.5986761354312873</v>
       </c>
       <c r="U99">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8+Table7[[#This Row],[x2]]*Table7[[#This Row],[gamma2]]*$N$8</f>
-        <v>82.503475522749596</v>
+        <v>82.503313061589523</v>
       </c>
       <c r="V99">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8/Table7[[#This Row],[P]]</f>
-        <v>0.98453301629949319</v>
+        <v>0.98453473745644715</v>
       </c>
     </row>
     <row r="100" spans="17:22" x14ac:dyDescent="0.3">
@@ -19812,19 +19766,19 @@
       </c>
       <c r="S100">
         <f>EXP(-LN(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)+Table7[[#This Row],[x2]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.0003300337532754</v>
+        <v>1.0003299093315312</v>
       </c>
       <c r="T100">
         <f>EXP(-LN(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)-Table7[[#This Row],[x1]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.6103398576030945</v>
+        <v>1.6101532020130331</v>
       </c>
       <c r="U100">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8+Table7[[#This Row],[x2]]*Table7[[#This Row],[gamma2]]*$N$8</f>
-        <v>83.016144400179783</v>
+        <v>83.016022464299127</v>
       </c>
       <c r="V100">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8/Table7[[#This Row],[P]]</f>
-        <v>0.98838860389954997</v>
+        <v>0.98838993273126929</v>
       </c>
     </row>
     <row r="101" spans="17:22" x14ac:dyDescent="0.3">
@@ -19837,19 +19791,19 @@
       </c>
       <c r="S101">
         <f>EXP(-LN(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)+Table7[[#This Row],[x2]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.0001459388760394</v>
+        <v>1.000145883546101</v>
       </c>
       <c r="T101">
         <f>EXP(-LN(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)-Table7[[#This Row],[x1]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.6219374673940659</v>
+        <v>1.6217450995016169</v>
       </c>
       <c r="U101">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8+Table7[[#This Row],[x2]]*Table7[[#This Row],[gamma2]]*$N$8</f>
-        <v>83.530104431309198</v>
+        <v>83.530023079743998</v>
       </c>
       <c r="V101">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8/Table7[[#This Row],[P]]</f>
-        <v>0.99225129227187137</v>
+        <v>0.99225220375206569</v>
       </c>
     </row>
     <row r="102" spans="17:22" x14ac:dyDescent="0.3">
@@ -19862,19 +19816,19 @@
       </c>
       <c r="S102">
         <f>EXP(-LN(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)+Table7[[#This Row],[x2]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.0000363022033603</v>
+        <v>1.0000362883622849</v>
       </c>
       <c r="T102">
         <f>EXP(-LN(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)-Table7[[#This Row],[x1]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.6336506901222188</v>
+        <v>1.6334524832887214</v>
       </c>
       <c r="U102">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8+Table7[[#This Row],[x2]]*Table7[[#This Row],[gamma2]]*$N$8</f>
-        <v>84.045381411251427</v>
+        <v>84.045340704317212</v>
       </c>
       <c r="V102">
         <f>Table7[[#This Row],[x1]]*Table7[[#This Row],[gamma1]]*$M$8/Table7[[#This Row],[P]]</f>
-        <v>0.99612159149346846</v>
+        <v>0.99612206017300542</v>
       </c>
     </row>
     <row r="103" spans="17:22" x14ac:dyDescent="0.3">
@@ -19891,7 +19845,7 @@
       </c>
       <c r="T103">
         <f>EXP(-LN(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)-Table7[[#This Row],[x1]]*($M$5/(Table7[[#This Row],[x1]]+Table7[[#This Row],[x2]]*$M$5)-$N$5/(Table7[[#This Row],[x2]]+Table7[[#This Row],[x1]]*$N$5)))</f>
-        <v>1.6454801946346365</v>
+        <v>1.6452760201967345</v>
       </c>
       <c r="U103">
         <v>84.561999999999998</v>
@@ -19904,7 +19858,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="K4" calculatedColumn="1"/>
+    <ignoredError sqref="K4:K13" calculatedColumn="1"/>
   </ignoredErrors>
   <drawing r:id="rId1"/>
   <tableParts count="2">
@@ -19916,10 +19870,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34D45BEA-6C6E-440E-91AE-BB114BEE9AE4}">
-  <dimension ref="B2:S39"/>
+  <dimension ref="B2:S46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19930,450 +19884,573 @@
       </c>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="K20" s="16" t="s">
+      <c r="K20" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="L20" s="16" t="s">
+      <c r="L20" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="M20" s="16" t="s">
+      <c r="M20" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="N20" s="16" t="s">
+      <c r="N20" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="P20" s="16" t="s">
+      <c r="P20" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q20" s="18"/>
+      <c r="S20" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="K21" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="L21" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M21" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="N21" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="P21" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="Q20" s="16"/>
-      <c r="S20" s="16" t="s">
+      <c r="Q21" s="18"/>
+      <c r="S21" s="18" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="K21" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="L21" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="M21" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="N21" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="P21" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q21" s="20"/>
-      <c r="S21" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="K22" s="20">
+      <c r="K22" s="18">
         <v>-963</v>
       </c>
-      <c r="L22" s="20">
+      <c r="L22" s="18">
         <v>-1523</v>
       </c>
-      <c r="M22" s="20">
+      <c r="M22" s="18">
         <v>52</v>
       </c>
-      <c r="N22" s="20">
+      <c r="N22" s="18">
         <f>2*M22-K22-L22</f>
         <v>2590</v>
       </c>
-      <c r="P22" s="20">
+      <c r="P22" s="18">
         <v>8314</v>
       </c>
-      <c r="Q22" s="20"/>
-      <c r="S22" s="20">
+      <c r="Q22" s="18"/>
+      <c r="S22" s="18">
         <f>55+273.15</f>
         <v>328.15</v>
       </c>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="K25" s="16" t="s">
+      <c r="K25" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="L25" s="16" t="s">
+      <c r="L25" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="N25" s="16" t="s">
+      <c r="N25" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="O25" s="16" t="s">
+      <c r="O25" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="Q25" s="16" t="s">
+      <c r="Q25" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="R25" s="16" t="s">
+      <c r="R25" s="14" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F26" s="16" t="s">
+      <c r="F26" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="H26" s="16" t="s">
+      <c r="H26" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="I26" s="16" t="s">
+      <c r="I26" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="K26" s="16" t="s">
+      <c r="K26" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="L26" s="16"/>
-      <c r="N26" s="16" t="s">
+      <c r="L26" s="14"/>
+      <c r="N26" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="O26" s="16"/>
-      <c r="Q26" s="16" t="s">
+      <c r="O26" s="14"/>
+      <c r="Q26" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="R26" s="16"/>
+      <c r="R26" s="14"/>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="E27" s="20">
+      <c r="E27" s="18">
         <v>0.59</v>
       </c>
-      <c r="F27" s="20">
+      <c r="F27" s="18">
         <v>1.42</v>
       </c>
-      <c r="H27" s="20" t="s">
+      <c r="H27" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="I27" s="20" t="s">
+      <c r="I27" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="K27" s="16">
-        <v>64.010866314655118</v>
-      </c>
-      <c r="L27" s="16">
-        <v>0.55583596360579801</v>
-      </c>
-      <c r="N27" s="16">
-        <v>80.403026688382596</v>
-      </c>
-      <c r="O27" s="16">
-        <v>0.73002828379803997</v>
-      </c>
-      <c r="Q27" s="16">
-        <v>85.774665367354629</v>
-      </c>
-      <c r="R27" s="16">
-        <v>0.80872592201159565</v>
+      <c r="K27" s="14">
+        <v>63.757167845471109</v>
+      </c>
+      <c r="L27" s="14">
+        <v>0.55809178196938714</v>
+      </c>
+      <c r="N27" s="14">
+        <v>80.320300825270976</v>
+      </c>
+      <c r="O27" s="14">
+        <v>0.73075883755706195</v>
+      </c>
+      <c r="Q27" s="14">
+        <v>85.813499937708954</v>
+      </c>
+      <c r="R27" s="14">
+        <v>0.80837101699666469</v>
       </c>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="H28" s="20">
+      <c r="H28" s="18">
         <v>82.37</v>
       </c>
-      <c r="I28" s="20">
+      <c r="I28" s="18">
         <v>37.31</v>
       </c>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="K30" s="20" t="s">
+      <c r="K30" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="L30" s="20">
+      <c r="L30" s="18">
         <v>0.25</v>
       </c>
-      <c r="N30" s="20" t="s">
+      <c r="N30" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="O30" s="20">
+      <c r="O30" s="18">
         <v>0.5</v>
       </c>
-      <c r="Q30" s="20" t="s">
+      <c r="Q30" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="R30" s="20">
+      <c r="R30" s="18">
         <v>0.75</v>
       </c>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="20">
+      <c r="C31" s="18">
         <v>0.25</v>
       </c>
-      <c r="E31" s="20" t="s">
+      <c r="E31" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="F31" s="20">
+      <c r="F31" s="18">
         <v>0.5</v>
       </c>
-      <c r="H31" s="20" t="s">
+      <c r="H31" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="I31" s="20">
+      <c r="I31" s="18">
         <v>0.75</v>
       </c>
-      <c r="K31" s="20" t="s">
+      <c r="K31" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="L31" s="20">
+      <c r="L31" s="18">
         <f>1-L30</f>
         <v>0.75</v>
       </c>
-      <c r="N31" s="20" t="s">
+      <c r="N31" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="O31" s="20">
+      <c r="O31" s="18">
         <f>1-O30</f>
         <v>0.5</v>
       </c>
-      <c r="Q31" s="20" t="s">
+      <c r="Q31" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="R31" s="20">
+      <c r="R31" s="18">
         <f>1-R30</f>
         <v>0.25</v>
       </c>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="20">
+      <c r="C32" s="18">
         <f>1-C31</f>
         <v>0.75</v>
       </c>
-      <c r="E32" s="20" t="s">
+      <c r="E32" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="20">
+      <c r="F32" s="18">
         <f>1-F31</f>
         <v>0.5</v>
       </c>
-      <c r="H32" s="20" t="s">
+      <c r="H32" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="I32" s="20">
+      <c r="I32" s="18">
         <f>1-I31</f>
         <v>0.25</v>
       </c>
-      <c r="K32" s="20" t="s">
+      <c r="K32" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="L32" s="20">
+      <c r="L32" s="18">
         <f>EXP(K27/$P$22/$S$22*($K$22+(1-L27)^2*N22))</f>
-        <v>0.98945011965830265</v>
-      </c>
-      <c r="N32" s="20" t="s">
+        <v>0.98937200909442258</v>
+      </c>
+      <c r="N32" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="O32" s="20">
+      <c r="O32" s="18">
         <f>EXP(N27/$P$22/$S$22*($K$22+(1-O27)^2*Q22))</f>
-        <v>0.97201868392675206</v>
-      </c>
-      <c r="Q32" s="20" t="s">
+        <v>0.97204706743794778</v>
+      </c>
+      <c r="Q32" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="R32" s="20">
+      <c r="R32" s="18">
         <f>EXP(Q27/$P$22/$S$22*($K$22+(1-R27)^2*T22))</f>
-        <v>0.97017743034010462</v>
+        <v>0.9701641315983166</v>
       </c>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C33" s="20">
+      <c r="C33" s="18">
         <f>EXP(C32^2*($E$27+2*($F$27-$E$27)*C31))</f>
         <v>1.7599976960734014</v>
       </c>
-      <c r="E33" s="20" t="s">
+      <c r="E33" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="F33" s="20">
+      <c r="F33" s="18">
         <f>EXP(F32^2*($E$27+2*($F$27-$E$27)*F31))</f>
         <v>1.4261806542814801</v>
       </c>
-      <c r="H33" s="20" t="s">
+      <c r="H33" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="I33" s="20">
+      <c r="I33" s="18">
         <f>EXP(I32^2*($E$27+2*($F$27-$E$27)*I31))</f>
         <v>1.1215229068959678</v>
       </c>
-      <c r="K33" s="20" t="s">
+      <c r="K33" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="L33" s="20">
+      <c r="L33" s="18">
         <f>EXP($K$22*$H$28/$P$22/$S$22)</f>
         <v>0.97134405309747063</v>
       </c>
-      <c r="N33" s="20" t="s">
+      <c r="N33" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="O33" s="20">
+      <c r="O33" s="18">
         <f>EXP($K$22*$H$28/$P$22/$S$22)</f>
         <v>0.97134405309747063</v>
       </c>
-      <c r="Q33" s="20" t="s">
+      <c r="Q33" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="R33" s="20">
+      <c r="R33" s="18">
         <f>EXP($K$22*$H$28/$P$22/$S$22)</f>
         <v>0.97134405309747063</v>
       </c>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B34" s="20" t="s">
+      <c r="B34" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="20">
+      <c r="C34" s="18">
         <f>EXP(C31^2*($F$27+2*($E$27-$F$27)*C32))</f>
         <v>1.0109975331242536</v>
       </c>
-      <c r="E34" s="20" t="s">
+      <c r="E34" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="F34" s="20">
+      <c r="F34" s="18">
         <f>EXP(F31^2*($F$27+2*($E$27-$F$27)*F32))</f>
         <v>1.1589332848297509</v>
       </c>
-      <c r="H34" s="20" t="s">
+      <c r="H34" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="I34" s="20">
+      <c r="I34" s="18">
         <f>EXP(I31^2*($F$27+2*($E$27-$F$27)*I32))</f>
         <v>1.7599976960734014</v>
       </c>
-      <c r="K34" s="20" t="s">
+      <c r="K34" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="L34" s="20">
+      <c r="L34" s="18">
         <f>L32/L33</f>
-        <v>1.0186402197070075</v>
-      </c>
-      <c r="N34" s="20" t="s">
+        <v>1.0185598047771678</v>
+      </c>
+      <c r="N34" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="O34" s="20">
+      <c r="O34" s="18">
         <f>O32/O33</f>
-        <v>1.0006945333397885</v>
-      </c>
-      <c r="Q34" s="20" t="s">
+        <v>1.0007237542024736</v>
+      </c>
+      <c r="Q34" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="R34" s="20">
+      <c r="R34" s="18">
         <f>R32/R33</f>
-        <v>0.99879896031313953</v>
+        <v>0.99878526924070676</v>
       </c>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="16">
+      <c r="C35" s="14">
         <f>C31*C33*$H$28+C32*C34*$I$28</f>
         <v>64.53299102704095</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F35" s="16">
+      <c r="F35" s="14">
         <f>F31*F33*$H$28+F32*F34*$I$28</f>
         <v>80.357150675081769</v>
       </c>
-      <c r="H35" s="16" t="s">
+      <c r="H35" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="I35" s="16">
+      <c r="I35" s="14">
         <f>I31*I33*$H$28+I32*I34*$I$28</f>
         <v>85.701259890890299</v>
       </c>
-      <c r="K35" s="20" t="s">
+      <c r="K35" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="L35" s="20">
+      <c r="L35" s="18">
         <f>EXP(L31^2*($E$27+2*($F$27-$E$27)*L30))</f>
         <v>1.7599976960734014</v>
       </c>
-      <c r="N35" s="20" t="s">
+      <c r="N35" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="O35" s="20">
+      <c r="O35" s="18">
         <f>EXP(O31^2*($E$27+2*($F$27-$E$27)*O30))</f>
         <v>1.4261806542814801</v>
       </c>
-      <c r="Q35" s="20" t="s">
+      <c r="Q35" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="R35" s="20">
+      <c r="R35" s="18">
         <f>EXP(R31^2*($E$27+2*($F$27-$E$27)*R30))</f>
         <v>1.1215229068959678</v>
       </c>
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="16">
+      <c r="C36" s="14">
         <f>C31*C33*$H$28/C35</f>
         <v>0.56161588018142372</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F36" s="16">
+      <c r="F36" s="14">
         <f>F31*F33*$H$28/F35</f>
         <v>0.73095237639874155</v>
       </c>
-      <c r="H36" s="16" t="s">
+      <c r="H36" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="I36" s="16">
+      <c r="I36" s="14">
         <f>I31*I33*$H$28/I35</f>
         <v>0.80844647405388215</v>
       </c>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="K37" t="s">
+      <c r="K37" s="18" t="s">
         <v>41</v>
       </c>
+      <c r="L37" s="18">
+        <f>EXP(K27/$P$22/$S$22*($L$22+$L$27^2*$N$22))</f>
+        <v>0.98339981833586398</v>
+      </c>
+      <c r="N37" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="O37" s="18">
+        <f>EXP(N27/$P$22/$S$22*($L$22+$L$27^2*$N$22))</f>
+        <v>0.97913262475736529</v>
+      </c>
+      <c r="Q37" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="R37" s="18">
+        <f>EXP(Q27/$P$22/$S$22*($L$22+$L$27^2*$N$22))</f>
+        <v>0.97772149349897908</v>
+      </c>
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="K38" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="L38" s="20"/>
-      <c r="N38" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="O38" s="20"/>
-      <c r="Q38" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="R38" s="20"/>
+      <c r="K38" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="L38" s="18">
+        <f>EXP($L$22*$I$28/$P$22/$S$22)</f>
+        <v>0.97938763230206338</v>
+      </c>
+      <c r="N38" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="O38" s="18">
+        <f>EXP($L$22*$I$28/$P$22/$S$22)</f>
+        <v>0.97938763230206338</v>
+      </c>
+      <c r="Q38" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="R38" s="18">
+        <f>EXP($L$22*$I$28/$P$22/$S$22)</f>
+        <v>0.97938763230206338</v>
+      </c>
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="K39" s="20"/>
-      <c r="L39" s="20">
+      <c r="K39" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="L39" s="18">
+        <f>L37/L38</f>
+        <v>1.0040966272203886</v>
+      </c>
+      <c r="N39" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="O39" s="18">
+        <f>O37/O38</f>
+        <v>0.99973962552079743</v>
+      </c>
+      <c r="Q39" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="R39" s="18">
+        <f>R37/R38</f>
+        <v>0.998298795340954</v>
+      </c>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="K40" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="L40" s="18">
+        <f>C34</f>
+        <v>1.0109975331242536</v>
+      </c>
+      <c r="N40" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="O40" s="18">
+        <f>F34</f>
+        <v>1.1589332848297509</v>
+      </c>
+      <c r="Q40" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="R40" s="18">
+        <f>I34</f>
+        <v>1.7599976960734014</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="K42" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="K43" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="L43" s="18"/>
+      <c r="N43" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="O43" s="18"/>
+      <c r="Q43" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="R43" s="18"/>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="K44" s="18"/>
+      <c r="L44" s="18">
         <f>L30*L35*$H$28-K27*L34*L27</f>
-        <v>5.2540428896463709E-7</v>
-      </c>
-      <c r="N39" s="20"/>
-      <c r="O39" s="20">
+        <v>-3.5560601929773838E-7</v>
+      </c>
+      <c r="N44" s="18"/>
+      <c r="O44" s="18">
         <f>O30*O35*$H$28-N27*O34*O27</f>
-        <v>-3.6836595995737298E-9</v>
-      </c>
-      <c r="Q39" s="20"/>
-      <c r="R39" s="20">
+        <v>-2.9328219852686743E-9</v>
+      </c>
+      <c r="Q44" s="18"/>
+      <c r="R44" s="18">
         <f>R30*R35*$H$28-Q27*R34*R27</f>
-        <v>1.9182664345862577E-9</v>
+        <v>-2.6803093078342499E-10</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="K45" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="L45" s="18"/>
+      <c r="N45" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="O45" s="18"/>
+      <c r="Q45" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="R45" s="18"/>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="K46" s="18"/>
+      <c r="L46" s="18">
+        <f>(1-L27)*L39*K27-L31*L40*$I$28</f>
+        <v>-3.2146499151508579E-7</v>
+      </c>
+      <c r="N46" s="18"/>
+      <c r="O46" s="18">
+        <f>(1-O27)*O39*N27-O31*O40*$I$28</f>
+        <v>-2.9503439691325184E-9</v>
+      </c>
+      <c r="Q46" s="18"/>
+      <c r="R46" s="18">
+        <f>(1-R27)*R39*Q27-R31*R40*$I$28</f>
+        <v>-2.6990676360583166E-10</v>
       </c>
     </row>
   </sheetData>
